--- a/avtokovriki/charts/report.xlsx
+++ b/avtokovriki/charts/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\cosmolady.github.io\avtokovriki\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$611</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="154">
   <si>
     <t>nissan</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Auris</t>
   </si>
   <si>
-    <t>Camry, corolla, rav4</t>
-  </si>
-  <si>
     <t>Camry</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Peugeot</t>
   </si>
   <si>
-    <t>Hyunfai</t>
-  </si>
-  <si>
     <t>e38</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Avensis</t>
   </si>
   <si>
-    <t>Mercedes-E-class</t>
-  </si>
-  <si>
     <t>Highlander</t>
   </si>
   <si>
@@ -149,18 +140,6 @@
     <t>Sonata</t>
   </si>
   <si>
-    <t xml:space="preserve">Accent </t>
-  </si>
-  <si>
-    <t>Land Criuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tucson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Cruiser Prado </t>
-  </si>
-  <si>
     <t>Fiat</t>
   </si>
   <si>
@@ -245,15 +224,9 @@
     <t>lacetti</t>
   </si>
   <si>
-    <t>Chevrolrt</t>
-  </si>
-  <si>
     <t>Niva</t>
   </si>
   <si>
-    <t>Chevtolet</t>
-  </si>
-  <si>
     <t>Citroen</t>
   </si>
   <si>
@@ -287,9 +260,6 @@
     <t>Nexia</t>
   </si>
   <si>
-    <t>fiat</t>
-  </si>
-  <si>
     <t>doblo</t>
   </si>
   <si>
@@ -302,9 +272,6 @@
     <t>Fiesta</t>
   </si>
   <si>
-    <t>ford</t>
-  </si>
-  <si>
     <t>focus</t>
   </si>
   <si>
@@ -317,9 +284,6 @@
     <t>CK2</t>
   </si>
   <si>
-    <t>Gelly</t>
-  </si>
-  <si>
     <t>GC6</t>
   </si>
   <si>
@@ -332,15 +296,6 @@
     <t>getz</t>
   </si>
   <si>
-    <t>hyundai</t>
-  </si>
-  <si>
-    <t>tucson</t>
-  </si>
-  <si>
-    <t>Hyunday</t>
-  </si>
-  <si>
     <t>Kia</t>
   </si>
   <si>
@@ -359,9 +314,6 @@
     <t>picanto</t>
   </si>
   <si>
-    <t>kia</t>
-  </si>
-  <si>
     <t>soul</t>
   </si>
   <si>
@@ -389,9 +341,6 @@
     <t>ml</t>
   </si>
   <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
     <t>Vito</t>
   </si>
   <si>
@@ -413,9 +362,6 @@
     <t>Outlander</t>
   </si>
   <si>
-    <t>Mitsubushi</t>
-  </si>
-  <si>
     <t>Almera</t>
   </si>
   <si>
@@ -513,9 +459,6 @@
   </si>
   <si>
     <t>Transporter</t>
-  </si>
-  <si>
-    <t>VW</t>
   </si>
   <si>
     <t>Caddy</t>
@@ -918,7 +861,7 @@
   <dimension ref="A1:H611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E613" sqref="E613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,28 +875,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,10 +907,10 @@
         <v>42669</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -981,10 +924,10 @@
         <v>42669</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -998,10 +941,10 @@
         <v>42669</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -1015,10 +958,10 @@
         <v>42669</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1032,10 +975,10 @@
         <v>42669</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1049,7 +992,7 @@
         <v>42669</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1066,10 +1009,10 @@
         <v>42669</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -1083,10 +1026,10 @@
         <v>42669</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1100,10 +1043,10 @@
         <v>42669</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -1117,10 +1060,10 @@
         <v>42669</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -1148,10 +1091,10 @@
         <v>42669</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1165,7 +1108,7 @@
         <v>42669</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -1182,10 +1125,10 @@
         <v>42669</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F15">
         <v>3600</v>
@@ -1199,10 +1142,10 @@
         <v>42669</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>600</v>
@@ -1216,7 +1159,7 @@
         <v>42669</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1233,7 +1176,7 @@
         <v>42669</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1250,10 +1193,10 @@
         <v>42669</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1267,10 +1210,10 @@
         <v>42669</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>3600</v>
@@ -1284,10 +1227,10 @@
         <v>42669</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F21">
         <v>120</v>
@@ -1301,7 +1244,7 @@
         <v>42669</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1315,10 +1258,10 @@
         <v>42669</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1332,7 +1275,7 @@
         <v>42669</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>208</v>
@@ -1349,10 +1292,10 @@
         <v>42669</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>120</v>
@@ -1366,10 +1309,10 @@
         <v>42669</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F26">
         <v>60</v>
@@ -1383,10 +1326,10 @@
         <v>42669</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>60</v>
@@ -1400,7 +1343,7 @@
         <v>42669</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1414,10 +1357,10 @@
         <v>42669</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <v>19</v>
@@ -1431,7 +1374,7 @@
         <v>42669</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1448,10 +1391,10 @@
         <v>42669</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>40</v>
@@ -1465,10 +1408,10 @@
         <v>42669</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32">
         <v>17</v>
@@ -1485,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1499,10 +1442,10 @@
         <v>42669</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>14</v>
@@ -1516,10 +1459,10 @@
         <v>42669</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -1533,10 +1476,10 @@
         <v>42669</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F36">
         <v>14</v>
@@ -1550,7 +1493,7 @@
         <v>42669</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1564,7 +1507,7 @@
         <v>42669</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1578,10 +1521,10 @@
         <v>42669</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F39">
         <v>33</v>
@@ -1595,10 +1538,10 @@
         <v>42669</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F40">
         <v>54</v>
@@ -1612,10 +1555,10 @@
         <v>42669</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1629,7 +1572,7 @@
         <v>42669</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1646,7 +1589,7 @@
         <v>42669</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -1663,7 +1606,7 @@
         <v>42669</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1677,7 +1620,7 @@
         <v>42669</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -1694,10 +1637,10 @@
         <v>42669</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1711,7 +1654,7 @@
         <v>42670</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>107</v>
@@ -1728,7 +1671,7 @@
         <v>42670</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1742,10 +1685,10 @@
         <v>42670</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -1759,7 +1702,7 @@
         <v>42670</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1773,10 +1716,10 @@
         <v>42670</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1790,10 +1733,10 @@
         <v>42670</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -1821,7 +1764,7 @@
         <v>42670</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1835,10 +1778,10 @@
         <v>42670</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -1852,7 +1795,7 @@
         <v>42670</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -1869,7 +1812,7 @@
         <v>42670</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1883,7 +1826,7 @@
         <v>42670</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1900,10 +1843,10 @@
         <v>42670</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59">
         <v>14</v>
@@ -1917,10 +1860,10 @@
         <v>42670</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -1934,10 +1877,10 @@
         <v>42670</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -1951,10 +1894,10 @@
         <v>42670</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F62">
         <v>40</v>
@@ -1968,7 +1911,7 @@
         <v>42670</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -1985,10 +1928,10 @@
         <v>42670</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>10</v>
@@ -2002,10 +1945,10 @@
         <v>42670</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>900</v>
@@ -2019,7 +1962,7 @@
         <v>42670</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2033,10 +1976,10 @@
         <v>42670</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <v>100</v>
@@ -2050,7 +1993,7 @@
         <v>42670</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2064,10 +2007,10 @@
         <v>42670</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69">
         <v>90</v>
@@ -2081,10 +2024,10 @@
         <v>42670</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F70">
         <v>5</v>
@@ -2098,10 +2041,10 @@
         <v>42670</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F71">
         <v>20</v>
@@ -2115,7 +2058,7 @@
         <v>42670</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -2132,7 +2075,7 @@
         <v>42670</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2149,10 +2092,10 @@
         <v>42670</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>10</v>
@@ -2165,11 +2108,11 @@
       <c r="B75" s="1">
         <v>42670</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>48</v>
+      <c r="D75" t="s">
+        <v>41</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -2183,7 +2126,7 @@
         <v>42670</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -2200,7 +2143,7 @@
         <v>42670</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -2217,7 +2160,7 @@
         <v>42670</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78">
         <v>9</v>
@@ -2231,19 +2174,19 @@
         <v>42670</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F79">
         <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2254,7 +2197,7 @@
         <v>42670</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2268,10 +2211,10 @@
         <v>42670</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <v>24</v>
@@ -2285,7 +2228,7 @@
         <v>42670</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2299,19 +2242,19 @@
         <v>42670</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F83">
         <v>900</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2322,10 +2265,10 @@
         <v>42670</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F84">
         <v>15</v>
@@ -2339,7 +2282,7 @@
         <v>42670</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2353,10 +2296,10 @@
         <v>42671</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F86">
         <v>80</v>
@@ -2370,7 +2313,7 @@
         <v>42671</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2384,7 +2327,7 @@
         <v>42671</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2398,10 +2341,10 @@
         <v>42671</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F89">
         <v>180</v>
@@ -2415,7 +2358,7 @@
         <v>42671</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2429,10 +2372,10 @@
         <v>42671</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F91">
         <v>16</v>
@@ -2446,10 +2389,10 @@
         <v>42671</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92">
         <v>55</v>
@@ -2463,10 +2406,10 @@
         <v>42671</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>21</v>
@@ -2480,10 +2423,10 @@
         <v>42671</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F94">
         <v>30</v>
@@ -2497,10 +2440,10 @@
         <v>42671</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E95" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F95">
         <v>20</v>
@@ -2514,10 +2457,10 @@
         <v>42671</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96">
         <v>36</v>
@@ -2531,10 +2474,10 @@
         <v>42671</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F97">
         <v>25</v>
@@ -2548,10 +2491,10 @@
         <v>42671</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F98">
         <v>8</v>
@@ -2565,7 +2508,7 @@
         <v>42671</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2579,10 +2522,10 @@
         <v>42671</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F100">
         <v>17</v>
@@ -2596,7 +2539,7 @@
         <v>42671</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -2613,10 +2556,10 @@
         <v>42671</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E102" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F102">
         <v>30</v>
@@ -2630,10 +2573,10 @@
         <v>42671</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F103">
         <v>20</v>
@@ -2647,7 +2590,7 @@
         <v>42671</v>
       </c>
       <c r="D104" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
         <v>1</v>
@@ -2664,10 +2607,10 @@
         <v>42671</v>
       </c>
       <c r="D105" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F105">
         <v>6</v>
@@ -2681,10 +2624,10 @@
         <v>42671</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F106">
         <v>17</v>
@@ -2698,10 +2641,10 @@
         <v>42671</v>
       </c>
       <c r="D107" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F107">
         <v>15</v>
@@ -2715,10 +2658,10 @@
         <v>42671</v>
       </c>
       <c r="D108" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F108">
         <v>40</v>
@@ -2732,7 +2675,7 @@
         <v>42671</v>
       </c>
       <c r="D109" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2746,7 +2689,7 @@
         <v>42671</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2760,10 +2703,10 @@
         <v>42671</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2777,13 +2720,13 @@
         <v>42671</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2791,7 +2734,7 @@
         <v>42671</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -2800,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2808,16 +2751,16 @@
         <v>42671</v>
       </c>
       <c r="D114" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F114">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2825,16 +2768,16 @@
         <v>42671</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F115">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2842,16 +2785,16 @@
         <v>42671</v>
       </c>
       <c r="D116" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F116">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2859,19 +2802,22 @@
         <v>42672</v>
       </c>
       <c r="D117" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117">
         <v>600</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2879,16 +2825,16 @@
         <v>42672</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F118">
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2896,16 +2842,16 @@
         <v>42672</v>
       </c>
       <c r="D119" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E119" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F119">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2913,16 +2859,16 @@
         <v>42672</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F120">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2930,13 +2876,13 @@
         <v>42672</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F121">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2944,13 +2890,13 @@
         <v>42672</v>
       </c>
       <c r="D122" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2958,16 +2904,16 @@
         <v>42672</v>
       </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2975,13 +2921,16 @@
         <v>42672</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="E124" t="s">
+        <v>101</v>
       </c>
       <c r="F124">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2989,13 +2938,13 @@
         <v>42672</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3003,16 +2952,16 @@
         <v>42672</v>
       </c>
       <c r="D126" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F126">
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3020,7 +2969,7 @@
         <v>42672</v>
       </c>
       <c r="D127" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
@@ -3029,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3037,16 +2986,16 @@
         <v>42672</v>
       </c>
       <c r="D128" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F128">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3057,13 +3006,13 @@
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F129">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3071,16 +3020,16 @@
         <v>42672</v>
       </c>
       <c r="D130" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F130">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3088,13 +3037,13 @@
         <v>42672</v>
       </c>
       <c r="D131" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3102,16 +3051,16 @@
         <v>42672</v>
       </c>
       <c r="D132" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3119,16 +3068,16 @@
         <v>42672</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F133">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3136,7 +3085,7 @@
         <v>42672</v>
       </c>
       <c r="D134" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E134" t="s">
         <v>1</v>
@@ -3145,7 +3094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3153,16 +3102,16 @@
         <v>42672</v>
       </c>
       <c r="D135" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3170,16 +3119,16 @@
         <v>42672</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F136">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3187,16 +3136,16 @@
         <v>42672</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E137" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F137">
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3207,13 +3156,13 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F138">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3221,7 +3170,7 @@
         <v>42672</v>
       </c>
       <c r="D139" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E139" t="s">
         <v>6</v>
@@ -3230,10 +3179,13 @@
         <v>300</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3241,16 +3193,16 @@
         <v>42672</v>
       </c>
       <c r="D140" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E140" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F140">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3258,16 +3210,16 @@
         <v>42672</v>
       </c>
       <c r="D141" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3275,16 +3227,16 @@
         <v>42672</v>
       </c>
       <c r="D142" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F142">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3292,16 +3244,16 @@
         <v>42672</v>
       </c>
       <c r="D143" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E143" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F143">
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3309,10 +3261,10 @@
         <v>42672</v>
       </c>
       <c r="D144" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F144">
         <v>180</v>
@@ -3326,10 +3278,10 @@
         <v>42672</v>
       </c>
       <c r="D145" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E145" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F145">
         <v>43</v>
@@ -3343,10 +3295,10 @@
         <v>42672</v>
       </c>
       <c r="D146" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3360,10 +3312,10 @@
         <v>42672</v>
       </c>
       <c r="D147" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F147">
         <v>55</v>
@@ -3377,10 +3329,10 @@
         <v>42673</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3394,19 +3346,19 @@
         <v>42673</v>
       </c>
       <c r="D149" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E149" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F149">
         <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -3417,7 +3369,7 @@
         <v>42673</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E150">
         <v>308</v>
@@ -3434,10 +3386,10 @@
         <v>42673</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F151">
         <v>18</v>
@@ -3451,10 +3403,10 @@
         <v>42673</v>
       </c>
       <c r="D152" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E152" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3468,19 +3420,19 @@
         <v>42673</v>
       </c>
       <c r="D153" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F153">
         <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -3491,10 +3443,10 @@
         <v>42673</v>
       </c>
       <c r="D154" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E154" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F154">
         <v>20</v>
@@ -3508,19 +3460,19 @@
         <v>42673</v>
       </c>
       <c r="D155" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F155">
         <v>27</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -3531,10 +3483,10 @@
         <v>42673</v>
       </c>
       <c r="D156" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F156">
         <v>240</v>
@@ -3548,19 +3500,19 @@
         <v>42673</v>
       </c>
       <c r="D157" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E157" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F157">
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -3571,7 +3523,7 @@
         <v>42673</v>
       </c>
       <c r="D158" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3585,19 +3537,19 @@
         <v>42673</v>
       </c>
       <c r="D159" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F159">
         <v>120</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -3608,10 +3560,10 @@
         <v>42673</v>
       </c>
       <c r="D160" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3625,7 +3577,7 @@
         <v>42673</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3639,10 +3591,10 @@
         <v>42673</v>
       </c>
       <c r="D162" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E162" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F162">
         <v>7</v>
@@ -3656,19 +3608,19 @@
         <v>42673</v>
       </c>
       <c r="D163" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E163" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F163">
         <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H163" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -3679,10 +3631,10 @@
         <v>42673</v>
       </c>
       <c r="D164" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F164">
         <v>18</v>
@@ -3696,10 +3648,10 @@
         <v>42673</v>
       </c>
       <c r="D165" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F165">
         <v>70</v>
@@ -3713,7 +3665,7 @@
         <v>42673</v>
       </c>
       <c r="D166" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -3730,10 +3682,10 @@
         <v>42673</v>
       </c>
       <c r="D167" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E167" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F167">
         <v>17</v>
@@ -3747,7 +3699,7 @@
         <v>42673</v>
       </c>
       <c r="D168" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E168" t="s">
         <v>3</v>
@@ -3764,10 +3716,10 @@
         <v>42673</v>
       </c>
       <c r="D169" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3781,10 +3733,10 @@
         <v>42673</v>
       </c>
       <c r="D170" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F170">
         <v>28</v>
@@ -3801,10 +3753,10 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F171">
         <v>10</v>
@@ -3821,7 +3773,7 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="D172" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E172" t="s">
         <v>7</v>
@@ -3841,10 +3793,10 @@
         <v>0.42638888888888887</v>
       </c>
       <c r="D173" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E173" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F173">
         <v>4</v>
@@ -3861,7 +3813,7 @@
         <v>0.4375</v>
       </c>
       <c r="D174" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3878,7 +3830,7 @@
         <v>0.43958333333333338</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3895,10 +3847,10 @@
         <v>0.4680555555555555</v>
       </c>
       <c r="D176" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E176" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3915,7 +3867,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="D177" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3932,19 +3884,19 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="D178" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F178">
         <v>100</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H178" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -3958,10 +3910,10 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="D179" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E179" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F179">
         <v>10</v>
@@ -3978,19 +3930,19 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="D180" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F180">
         <v>300</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H180" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,10 +3956,10 @@
         <v>0.54027777777777775</v>
       </c>
       <c r="D181" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E181" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F181">
         <v>120</v>
@@ -4024,10 +3976,10 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="D182" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F182">
         <v>20</v>
@@ -4044,7 +3996,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F183">
         <v>11</v>
@@ -4061,10 +4013,10 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="D184" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F184">
         <v>15</v>
@@ -4081,10 +4033,10 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F185">
         <v>15</v>
@@ -4101,10 +4053,10 @@
         <v>0.5805555555555556</v>
       </c>
       <c r="D186" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E186" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F186">
         <v>120</v>
@@ -4121,10 +4073,10 @@
         <v>0.6020833333333333</v>
       </c>
       <c r="D187" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E187" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F187">
         <v>10</v>
@@ -4141,7 +4093,7 @@
         <v>0.62569444444444444</v>
       </c>
       <c r="D188" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4158,10 +4110,10 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E189" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F189">
         <v>5</v>
@@ -4178,7 +4130,7 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="D190" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -4198,10 +4150,10 @@
         <v>0.70694444444444438</v>
       </c>
       <c r="D191" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F191">
         <v>12</v>
@@ -4218,10 +4170,10 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="D192" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F192">
         <v>10</v>
@@ -4238,10 +4190,10 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="D193" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E193" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F193">
         <v>17</v>
@@ -4258,10 +4210,10 @@
         <v>0.74722222222222223</v>
       </c>
       <c r="D194" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F194">
         <v>6</v>
@@ -4278,10 +4230,10 @@
         <v>0.76874999999999993</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E195" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F195">
         <v>18</v>
@@ -4298,10 +4250,10 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="D196" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F196">
         <v>15</v>
@@ -4318,7 +4270,7 @@
         <v>0.8222222222222223</v>
       </c>
       <c r="D197" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4335,10 +4287,10 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="D198" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F198">
         <v>12</v>
@@ -4355,7 +4307,7 @@
         <v>0.84652777777777777</v>
       </c>
       <c r="D199" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4372,10 +4324,10 @@
         <v>0.85625000000000007</v>
       </c>
       <c r="D200" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E200" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F200">
         <v>10</v>
@@ -4392,10 +4344,10 @@
         <v>0.87986111111111109</v>
       </c>
       <c r="D201" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E201" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F201">
         <v>12</v>
@@ -4412,7 +4364,7 @@
         <v>0.8847222222222223</v>
       </c>
       <c r="D202" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E202" t="s">
         <v>7</v>
@@ -4432,10 +4384,10 @@
         <v>0.88750000000000007</v>
       </c>
       <c r="D203" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E203" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F203">
         <v>33</v>
@@ -4452,10 +4404,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="D204" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F204">
         <v>16</v>
@@ -4472,10 +4424,10 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="D205" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F205">
         <v>3</v>
@@ -4492,7 +4444,7 @@
         <v>0.93472222222222223</v>
       </c>
       <c r="D206" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4509,7 +4461,7 @@
         <v>0.21041666666666667</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4526,10 +4478,10 @@
         <v>0.27638888888888885</v>
       </c>
       <c r="D208" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E208" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F208">
         <v>3</v>
@@ -4546,10 +4498,10 @@
         <v>0.37291666666666662</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E209" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="F209">
         <v>61</v>
@@ -4566,7 +4518,7 @@
         <v>0.38958333333333334</v>
       </c>
       <c r="D210" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4583,7 +4535,7 @@
         <v>0.39444444444444443</v>
       </c>
       <c r="D211" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4600,10 +4552,10 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="D212" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E212" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4620,10 +4572,10 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D213" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F213">
         <v>21</v>
@@ -4640,19 +4592,19 @@
         <v>0.43958333333333338</v>
       </c>
       <c r="D214" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E214" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F214">
         <v>300</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H214" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,7 +4618,7 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="D215" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4683,7 +4635,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4700,7 +4652,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D217" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E217">
         <v>6</v>
@@ -4720,10 +4672,10 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="D218" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F218">
         <v>25</v>
@@ -4740,19 +4692,19 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="D219" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F219">
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H219" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -4766,10 +4718,10 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="D220" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E220" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F220">
         <v>60</v>
@@ -4786,10 +4738,10 @@
         <v>0.49791666666666662</v>
       </c>
       <c r="D221" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F221">
         <v>51</v>
@@ -4806,10 +4758,10 @@
         <v>0.4993055555555555</v>
       </c>
       <c r="D222" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F222">
         <v>80</v>
@@ -4826,10 +4778,10 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="D223" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4846,7 +4798,7 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="D224" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
@@ -4866,7 +4818,7 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="D225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E225">
         <v>6</v>
@@ -4886,7 +4838,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="D226" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
@@ -4906,10 +4858,10 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="D227" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F227">
         <v>27</v>
@@ -4926,7 +4878,7 @@
         <v>0.60277777777777775</v>
       </c>
       <c r="D228" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4943,10 +4895,10 @@
         <v>0.61041666666666672</v>
       </c>
       <c r="D229" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F229">
         <v>16</v>
@@ -4963,10 +4915,10 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="D230" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F230">
         <v>6</v>
@@ -4983,10 +4935,10 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="D231" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F231">
         <v>70</v>
@@ -5003,10 +4955,10 @@
         <v>0.7055555555555556</v>
       </c>
       <c r="D232" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E232" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F232">
         <v>25</v>
@@ -5023,10 +4975,10 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="D233" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E233" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F233">
         <v>35</v>
@@ -5043,7 +4995,7 @@
         <v>0.7944444444444444</v>
       </c>
       <c r="D234" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5060,7 +5012,7 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="D235" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5077,19 +5029,19 @@
         <v>0.83124999999999993</v>
       </c>
       <c r="D236" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E236" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F236">
         <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H236" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -5103,10 +5055,10 @@
         <v>0.84236111111111101</v>
       </c>
       <c r="D237" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E237" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F237">
         <v>40</v>
@@ -5123,10 +5075,10 @@
         <v>0.84375</v>
       </c>
       <c r="D238" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E238" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F238">
         <v>28</v>
@@ -5143,7 +5095,7 @@
         <v>0.84513888888888899</v>
       </c>
       <c r="D239" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5160,10 +5112,10 @@
         <v>0.85069444444444453</v>
       </c>
       <c r="D240" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F240">
         <v>21</v>
@@ -5180,10 +5132,10 @@
         <v>0.87708333333333333</v>
       </c>
       <c r="D241" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E241" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F241">
         <v>21</v>
@@ -5200,10 +5152,10 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D242" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F242">
         <v>33</v>
@@ -5220,10 +5172,10 @@
         <v>0.89097222222222217</v>
       </c>
       <c r="D243" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E243" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F243">
         <v>12</v>
@@ -5240,10 +5192,10 @@
         <v>0.91041666666666676</v>
       </c>
       <c r="D244" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E244" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F244">
         <v>30</v>
@@ -5260,19 +5212,19 @@
         <v>0.9506944444444444</v>
       </c>
       <c r="D245" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F245">
         <v>150</v>
       </c>
       <c r="G245" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H245" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -5286,10 +5238,10 @@
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="D246" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5306,7 +5258,7 @@
         <v>0.21111111111111111</v>
       </c>
       <c r="D247" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5323,10 +5275,10 @@
         <v>0.31111111111111112</v>
       </c>
       <c r="D248" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F248">
         <v>52</v>
@@ -5343,10 +5295,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="D249" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E249" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F249">
         <v>6</v>
@@ -5363,10 +5315,10 @@
         <v>0.33611111111111108</v>
       </c>
       <c r="D250" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F250">
         <v>10</v>
@@ -5383,10 +5335,10 @@
         <v>0.38472222222222219</v>
       </c>
       <c r="D251" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E251" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F251">
         <v>15</v>
@@ -5403,10 +5355,10 @@
         <v>0.39027777777777778</v>
       </c>
       <c r="D252" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E252" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F252">
         <v>6</v>
@@ -5423,19 +5375,19 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="D253" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E253" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F253">
         <v>6</v>
       </c>
       <c r="G253" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H253" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -5449,10 +5401,10 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="D254" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F254">
         <v>10</v>
@@ -5469,7 +5421,7 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="D255" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F255">
         <v>3</v>
@@ -5486,10 +5438,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E256" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F256">
         <v>13</v>
@@ -5506,7 +5458,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="D257" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E257" t="s">
         <v>3</v>
@@ -5526,10 +5478,10 @@
         <v>0.54791666666666672</v>
       </c>
       <c r="D258" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E258" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F258">
         <v>4</v>
@@ -5546,10 +5498,10 @@
         <v>0.55347222222222225</v>
       </c>
       <c r="D259" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F259">
         <v>30</v>
@@ -5566,10 +5518,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D260" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F260">
         <v>34</v>
@@ -5586,10 +5538,10 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="D261" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E261" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F261">
         <v>30</v>
@@ -5606,10 +5558,10 @@
         <v>0.6020833333333333</v>
       </c>
       <c r="D262" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E262" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F262">
         <v>80</v>
@@ -5626,19 +5578,19 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D263" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E263" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F263">
         <v>35</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H263" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -5652,10 +5604,10 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="D264" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E264" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F264">
         <v>6</v>
@@ -5672,10 +5624,10 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="D265" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E265" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F265">
         <v>28</v>
@@ -5692,10 +5644,10 @@
         <v>0.62777777777777777</v>
       </c>
       <c r="D266" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F266">
         <v>22</v>
@@ -5712,7 +5664,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D267" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E267" t="s">
         <v>3</v>
@@ -5732,10 +5684,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D268" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E268" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F268">
         <v>3</v>
@@ -5752,19 +5704,19 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="D269" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E269" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F269">
         <v>600</v>
       </c>
       <c r="G269" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H269" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -5778,10 +5730,10 @@
         <v>0.66736111111111107</v>
       </c>
       <c r="D270" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E270" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F270">
         <v>29</v>
@@ -5798,7 +5750,7 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="D271" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5815,10 +5767,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="D272" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E272" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F272">
         <v>7</v>
@@ -5835,10 +5787,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="D273" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F273">
         <v>35</v>
@@ -5855,10 +5807,10 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="D274" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E274" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F274">
         <v>17</v>
@@ -5875,10 +5827,10 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="D275" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F275">
         <v>45</v>
@@ -5895,19 +5847,19 @@
         <v>0.73472222222222217</v>
       </c>
       <c r="D276" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E276" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F276">
         <v>80</v>
       </c>
       <c r="G276" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H276" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -5921,7 +5873,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5938,19 +5890,19 @@
         <v>0.75486111111111109</v>
       </c>
       <c r="D278" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F278">
         <v>160</v>
       </c>
       <c r="G278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H278" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -5964,10 +5916,10 @@
         <v>0.82013888888888886</v>
       </c>
       <c r="D279" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E279" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F279">
         <v>60</v>
@@ -5984,10 +5936,10 @@
         <v>0.8340277777777777</v>
       </c>
       <c r="D280" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F280">
         <v>40</v>
@@ -6004,19 +5956,19 @@
         <v>0.8569444444444444</v>
       </c>
       <c r="D281" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E281" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F281">
         <v>200</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H281" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -6030,10 +5982,10 @@
         <v>0.8618055555555556</v>
       </c>
       <c r="D282" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E282" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F282">
         <v>40</v>
@@ -6050,10 +6002,10 @@
         <v>0.87083333333333324</v>
       </c>
       <c r="D283" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E283" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6070,10 +6022,10 @@
         <v>0.8979166666666667</v>
       </c>
       <c r="D284" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E284" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F284">
         <v>30</v>
@@ -6090,7 +6042,7 @@
         <v>0.9</v>
       </c>
       <c r="D285" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E285" t="s">
         <v>7</v>
@@ -6110,10 +6062,10 @@
         <v>0.9194444444444444</v>
       </c>
       <c r="D286" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F286">
         <v>60</v>
@@ -6130,10 +6082,10 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="D287" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F287">
         <v>25</v>
@@ -6150,10 +6102,10 @@
         <v>0.9277777777777777</v>
       </c>
       <c r="D288" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E288" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F288">
         <v>60</v>
@@ -6170,10 +6122,10 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D289" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E289" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F289">
         <v>60</v>
@@ -6190,10 +6142,10 @@
         <v>0.96805555555555556</v>
       </c>
       <c r="D290" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E290" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F290">
         <v>12</v>
@@ -6210,10 +6162,10 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D291" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E291" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F291">
         <v>15</v>
@@ -6230,10 +6182,10 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="D292" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E292" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F292">
         <v>40</v>
@@ -6250,10 +6202,10 @@
         <v>0.36527777777777781</v>
       </c>
       <c r="D293" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E293" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F293">
         <v>12</v>
@@ -6270,10 +6222,10 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="D294" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E294" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F294">
         <v>30</v>
@@ -6290,10 +6242,10 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D295" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E295" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F295">
         <v>17</v>
@@ -6310,10 +6262,10 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="D296" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E296" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F296">
         <v>30</v>
@@ -6330,7 +6282,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="D297" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E297">
         <v>3008</v>
@@ -6350,7 +6302,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="D298" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6367,10 +6319,10 @@
         <v>0.5756944444444444</v>
       </c>
       <c r="D299" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E299" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F299">
         <v>12</v>
@@ -6387,10 +6339,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D300" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F300">
         <v>32</v>
@@ -6407,10 +6359,10 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="D301" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F301">
         <v>27</v>
@@ -6427,7 +6379,7 @@
         <v>0.60486111111111118</v>
       </c>
       <c r="D302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6444,10 +6396,10 @@
         <v>0.64097222222222217</v>
       </c>
       <c r="D303" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E303" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F303">
         <v>58</v>
@@ -6464,10 +6416,10 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="D304" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F304">
         <v>20</v>
@@ -6484,10 +6436,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D305" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E305" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F305">
         <v>17</v>
@@ -6504,10 +6456,10 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="D306" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E306" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F306">
         <v>90</v>
@@ -6524,10 +6476,10 @@
         <v>0.65763888888888888</v>
       </c>
       <c r="D307" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E307" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F307">
         <v>52</v>
@@ -6544,7 +6496,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="D308" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6561,7 +6513,7 @@
         <v>0.73472222222222217</v>
       </c>
       <c r="D309" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6578,7 +6530,7 @@
         <v>0.73541666666666661</v>
       </c>
       <c r="D310" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6595,10 +6547,10 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="D311" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E311" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F311">
         <v>20</v>
@@ -6615,7 +6567,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="D312" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6632,7 +6584,7 @@
         <v>0.75486111111111109</v>
       </c>
       <c r="D313" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E313" t="s">
         <v>6</v>
@@ -6652,10 +6604,10 @@
         <v>0.76111111111111107</v>
       </c>
       <c r="D314" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E314" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F314">
         <v>30</v>
@@ -6672,10 +6624,10 @@
         <v>0.76597222222222217</v>
       </c>
       <c r="D315" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E315" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F315">
         <v>60</v>
@@ -6692,7 +6644,7 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="D316" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6709,10 +6661,10 @@
         <v>0.77638888888888891</v>
       </c>
       <c r="D317" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6729,10 +6681,10 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D318" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E318" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F318">
         <v>10</v>
@@ -6749,10 +6701,10 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D319" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E319" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F319">
         <v>16</v>
@@ -6769,7 +6721,7 @@
         <v>0.81319444444444444</v>
       </c>
       <c r="D320" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6786,10 +6738,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D321" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E321" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6806,10 +6758,10 @@
         <v>0.8354166666666667</v>
       </c>
       <c r="D322" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E322" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F322">
         <v>24</v>
@@ -6826,10 +6778,10 @@
         <v>0.84166666666666667</v>
       </c>
       <c r="D323" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E323" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F323">
         <v>40</v>
@@ -6846,10 +6798,10 @@
         <v>0.84791666666666676</v>
       </c>
       <c r="D324" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E324" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F324">
         <v>20</v>
@@ -6866,10 +6818,10 @@
         <v>0.85138888888888886</v>
       </c>
       <c r="D325" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E325" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F325">
         <v>10</v>
@@ -6886,7 +6838,7 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="D326" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6903,10 +6855,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D327" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E327" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F327">
         <v>40</v>
@@ -6923,10 +6875,10 @@
         <v>0.86805555555555547</v>
       </c>
       <c r="D328" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E328" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F328">
         <v>4</v>
@@ -6943,10 +6895,10 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="D329" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E329" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F329">
         <v>30</v>
@@ -6963,7 +6915,7 @@
         <v>0.87569444444444444</v>
       </c>
       <c r="D330" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -6980,10 +6932,10 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="D331" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E331" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F331">
         <v>30</v>
@@ -7000,7 +6952,7 @@
         <v>0.8965277777777777</v>
       </c>
       <c r="D332" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7017,10 +6969,10 @@
         <v>0.90416666666666667</v>
       </c>
       <c r="D333" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E333" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F333">
         <v>15</v>
@@ -7037,10 +6989,10 @@
         <v>0.90694444444444444</v>
       </c>
       <c r="D334" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F334">
         <v>17</v>
@@ -7057,10 +7009,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D335" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E335" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F335">
         <v>8</v>
@@ -7077,7 +7029,7 @@
         <v>0.92152777777777783</v>
       </c>
       <c r="D336" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7094,7 +7046,7 @@
         <v>0.93611111111111101</v>
       </c>
       <c r="D337" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7111,10 +7063,10 @@
         <v>0.94513888888888886</v>
       </c>
       <c r="D338" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E338" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F338">
         <v>15</v>
@@ -7131,10 +7083,10 @@
         <v>0.96250000000000002</v>
       </c>
       <c r="D339" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F339">
         <v>20</v>
@@ -7151,10 +7103,10 @@
         <v>0.97569444444444453</v>
       </c>
       <c r="D340" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E340" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F340">
         <v>58</v>
@@ -7171,10 +7123,10 @@
         <v>0.97638888888888886</v>
       </c>
       <c r="D341" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F341">
         <v>20</v>
@@ -7191,10 +7143,10 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="D342" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E342" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F342">
         <v>35</v>
@@ -7211,7 +7163,7 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="D343" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E343" t="s">
         <v>7</v>
@@ -7231,10 +7183,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="D344" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E344" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7251,7 +7203,7 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="D345" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7268,10 +7220,10 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="D346" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E346" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F346">
         <v>30</v>
@@ -7288,10 +7240,10 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="D347" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E347" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F347">
         <v>25</v>
@@ -7308,10 +7260,10 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="D348" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F348">
         <v>300</v>
@@ -7328,7 +7280,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D349" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E349" t="s">
         <v>10</v>
@@ -7348,10 +7300,10 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="D350" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E350" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F350">
         <v>8</v>
@@ -7368,10 +7320,10 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="D351" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E351" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F351">
         <v>15</v>
@@ -7388,10 +7340,10 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="D352" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E352" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F352">
         <v>34</v>
@@ -7408,10 +7360,10 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="D353" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E353" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F353">
         <v>3</v>
@@ -7428,10 +7380,10 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="D354" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E354" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F354">
         <v>13</v>
@@ -7448,10 +7400,10 @@
         <v>0.53263888888888888</v>
       </c>
       <c r="D355" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E355" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -7468,10 +7420,10 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="D356" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E356" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F356">
         <v>11</v>
@@ -7488,10 +7440,10 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="D357" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E357" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F357">
         <v>8</v>
@@ -7508,10 +7460,10 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="D358" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F358">
         <v>14</v>
@@ -7528,10 +7480,10 @@
         <v>0.60347222222222219</v>
       </c>
       <c r="D359" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E359" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F359">
         <v>60</v>
@@ -7548,10 +7500,10 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="D360" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E360" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F360">
         <v>15</v>
@@ -7568,10 +7520,10 @@
         <v>0.60625000000000007</v>
       </c>
       <c r="D361" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F361">
         <v>30</v>
@@ -7588,10 +7540,10 @@
         <v>0.6118055555555556</v>
       </c>
       <c r="D362" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E362" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F362">
         <v>19</v>
@@ -7608,19 +7560,19 @@
         <v>0.6118055555555556</v>
       </c>
       <c r="D363" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E363" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F363">
         <v>180</v>
       </c>
       <c r="G363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H363" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -7634,10 +7586,10 @@
         <v>0.65069444444444446</v>
       </c>
       <c r="D364" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E364" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F364">
         <v>25</v>
@@ -7654,10 +7606,10 @@
         <v>0.65069444444444446</v>
       </c>
       <c r="D365" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E365" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F365">
         <v>9</v>
@@ -7674,10 +7626,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D366" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E366" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F366">
         <v>8</v>
@@ -7694,10 +7646,10 @@
         <v>0.68194444444444446</v>
       </c>
       <c r="D367" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E367" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F367">
         <v>23</v>
@@ -7714,7 +7666,7 @@
         <v>0.68472222222222223</v>
       </c>
       <c r="D368" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7731,7 +7683,7 @@
         <v>0.6875</v>
       </c>
       <c r="D369" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7748,10 +7700,10 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="D370" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F370">
         <v>6</v>
@@ -7768,10 +7720,10 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="D371" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E371" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F371">
         <v>15</v>
@@ -7788,10 +7740,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D372" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E372" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F372">
         <v>10</v>
@@ -7808,10 +7760,10 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="D373" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E373" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F373">
         <v>20</v>
@@ -7828,10 +7780,10 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="D374" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F374">
         <v>40</v>
@@ -7851,7 +7803,7 @@
         <v>9</v>
       </c>
       <c r="E375" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F375">
         <v>25</v>
@@ -7868,10 +7820,10 @@
         <v>0.79652777777777783</v>
       </c>
       <c r="D376" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E376" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F376">
         <v>15</v>
@@ -7888,10 +7840,10 @@
         <v>0.81041666666666667</v>
       </c>
       <c r="D377" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E377" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F377">
         <v>20</v>
@@ -7908,10 +7860,10 @@
         <v>0.82152777777777775</v>
       </c>
       <c r="D378" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E378" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F378">
         <v>60</v>
@@ -7928,7 +7880,7 @@
         <v>0.83472222222222225</v>
       </c>
       <c r="D379" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E379" t="s">
         <v>10</v>
@@ -7948,10 +7900,10 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="D380" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E380" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F380">
         <v>15</v>
@@ -7968,10 +7920,10 @@
         <v>0.87083333333333324</v>
       </c>
       <c r="D381" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E381" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F381">
         <v>27</v>
@@ -7988,7 +7940,7 @@
         <v>0.89861111111111114</v>
       </c>
       <c r="D382" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E382">
         <v>6</v>
@@ -8008,10 +7960,10 @@
         <v>0.90555555555555556</v>
       </c>
       <c r="D383" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E383" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F383">
         <v>22</v>
@@ -8028,10 +7980,10 @@
         <v>0.91111111111111109</v>
       </c>
       <c r="D384" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E384" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F384">
         <v>4</v>
@@ -8048,10 +8000,10 @@
         <v>0.9555555555555556</v>
       </c>
       <c r="D385" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E385" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F385">
         <v>18</v>
@@ -8068,10 +8020,10 @@
         <v>0.96388888888888891</v>
       </c>
       <c r="D386" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E386" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F386">
         <v>20</v>
@@ -8088,10 +8040,10 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="D387" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E387" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F387">
         <v>12</v>
@@ -8108,7 +8060,7 @@
         <v>0.27430555555555552</v>
       </c>
       <c r="D388" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F388">
         <v>2</v>
@@ -8128,7 +8080,7 @@
         <v>9</v>
       </c>
       <c r="E389" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -8145,7 +8097,7 @@
         <v>0.43541666666666662</v>
       </c>
       <c r="D390" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8162,19 +8114,19 @@
         <v>0.52638888888888891</v>
       </c>
       <c r="D391" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E391" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F391">
         <v>78</v>
       </c>
       <c r="G391" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H391" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -8188,7 +8140,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="D392" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E392" t="s">
         <v>10</v>
@@ -8208,10 +8160,10 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="D393" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E393" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F393">
         <v>15</v>
@@ -8228,10 +8180,10 @@
         <v>0.8354166666666667</v>
       </c>
       <c r="D394" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E394" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F394">
         <v>40</v>
@@ -8248,10 +8200,10 @@
         <v>0.84375</v>
       </c>
       <c r="D395" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E395" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F395">
         <v>15</v>
@@ -8271,7 +8223,7 @@
         <v>9</v>
       </c>
       <c r="E396" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F396">
         <v>12</v>
@@ -8288,10 +8240,10 @@
         <v>0.88055555555555554</v>
       </c>
       <c r="D397" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E397" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F397">
         <v>12</v>
@@ -8308,10 +8260,10 @@
         <v>0.92291666666666661</v>
       </c>
       <c r="D398" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E398" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F398">
         <v>10</v>
@@ -8328,7 +8280,7 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D399" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -8345,10 +8297,10 @@
         <v>0.95416666666666661</v>
       </c>
       <c r="D400" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E400" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F400">
         <v>46</v>
@@ -8365,10 +8317,10 @@
         <v>0.9590277777777777</v>
       </c>
       <c r="D401" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E401" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F401">
         <v>29</v>
@@ -8385,10 +8337,10 @@
         <v>0.96180555555555547</v>
       </c>
       <c r="D402" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E402" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F402">
         <v>31</v>
@@ -8405,7 +8357,7 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="D403" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8422,10 +8374,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="D404" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E404" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F404">
         <v>4</v>
@@ -8442,10 +8394,10 @@
         <v>0.16527777777777777</v>
       </c>
       <c r="D405" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E405" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F405">
         <v>35</v>
@@ -8462,10 +8414,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D406" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E406" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F406">
         <v>1</v>
@@ -8482,10 +8434,10 @@
         <v>0.28819444444444448</v>
       </c>
       <c r="D407" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E407" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F407">
         <v>60</v>
@@ -8502,7 +8454,7 @@
         <v>0.36388888888888887</v>
       </c>
       <c r="D408" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8519,19 +8471,19 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D409" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E409" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F409">
         <v>540</v>
       </c>
       <c r="G409" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H409" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -8545,10 +8497,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D410" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E410" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F410">
         <v>65</v>
@@ -8565,10 +8517,10 @@
         <v>0.4375</v>
       </c>
       <c r="D411" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E411" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F411">
         <v>100</v>
@@ -8585,10 +8537,10 @@
         <v>0.45763888888888887</v>
       </c>
       <c r="D412" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E412" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F412">
         <v>32</v>
@@ -8605,10 +8557,10 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="D413" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E413" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F413">
         <v>7</v>
@@ -8625,10 +8577,10 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="D414" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E414" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F414">
         <v>13</v>
@@ -8645,10 +8597,10 @@
         <v>0.51458333333333328</v>
       </c>
       <c r="D415" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E415" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F415">
         <v>8</v>
@@ -8665,10 +8617,10 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="D416" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E416" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -8685,7 +8637,7 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="D417" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -8702,7 +8654,7 @@
         <v>0.55625000000000002</v>
       </c>
       <c r="D418" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -8719,10 +8671,10 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="D419" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E419" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F419">
         <v>60</v>
@@ -8739,7 +8691,7 @@
         <v>0.56458333333333333</v>
       </c>
       <c r="D420" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -8756,10 +8708,10 @@
         <v>0.57013888888888886</v>
       </c>
       <c r="D421" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E421" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F421">
         <v>22</v>
@@ -8776,7 +8728,7 @@
         <v>0.6069444444444444</v>
       </c>
       <c r="D422" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8793,7 +8745,7 @@
         <v>0.62638888888888888</v>
       </c>
       <c r="D423" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -8810,10 +8762,10 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="D424" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F424">
         <v>60</v>
@@ -8830,10 +8782,10 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="D425" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E425" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F425">
         <v>40</v>
@@ -8850,7 +8802,7 @@
         <v>0.64444444444444449</v>
       </c>
       <c r="D426" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E426" t="s">
         <v>7</v>
@@ -8870,10 +8822,10 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D427" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E427" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F427">
         <v>13</v>
@@ -8890,7 +8842,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="D428" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E428">
         <v>308</v>
@@ -8910,10 +8862,10 @@
         <v>0.68819444444444444</v>
       </c>
       <c r="D429" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E429" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F429">
         <v>11</v>
@@ -8930,10 +8882,10 @@
         <v>0.69930555555555562</v>
       </c>
       <c r="D430" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E430" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F430">
         <v>8</v>
@@ -8950,10 +8902,10 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="D431" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E431" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F431">
         <v>20</v>
@@ -8970,10 +8922,10 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="D432" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E432" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F432">
         <v>60</v>
@@ -8990,10 +8942,10 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="D433" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E433" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F433">
         <v>5</v>
@@ -9010,10 +8962,10 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="D434" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E434" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F434">
         <v>5</v>
@@ -9030,10 +8982,10 @@
         <v>0.74236111111111114</v>
       </c>
       <c r="D435" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E435" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F435">
         <v>62</v>
@@ -9050,10 +9002,10 @@
         <v>0.75</v>
       </c>
       <c r="D436" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E436" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F436">
         <v>100</v>
@@ -9070,7 +9022,7 @@
         <v>0.75138888888888899</v>
       </c>
       <c r="D437" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -9087,10 +9039,10 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="D438" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E438" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F438">
         <v>30</v>
@@ -9107,10 +9059,10 @@
         <v>0.76944444444444438</v>
       </c>
       <c r="D439" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E439" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F439">
         <v>10</v>
@@ -9127,10 +9079,10 @@
         <v>0.79027777777777775</v>
       </c>
       <c r="D440" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E440" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F440">
         <v>66</v>
@@ -9147,10 +9099,10 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="D441" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E441" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F441">
         <v>18</v>
@@ -9167,19 +9119,19 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="D442" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E442" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F442">
         <v>30</v>
       </c>
       <c r="G442" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H442" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -9193,7 +9145,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="D443" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -9210,7 +9162,7 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="D444" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -9227,10 +9179,10 @@
         <v>0.82430555555555562</v>
       </c>
       <c r="D445" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E445" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -9247,7 +9199,7 @@
         <v>0.86041666666666661</v>
       </c>
       <c r="D446" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -9264,10 +9216,10 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D447" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E447" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F447">
         <v>35</v>
@@ -9284,10 +9236,10 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D448" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E448" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F448">
         <v>100</v>
@@ -9304,7 +9256,7 @@
         <v>0.8979166666666667</v>
       </c>
       <c r="D449" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F449">
         <v>1</v>
@@ -9321,10 +9273,10 @@
         <v>0.91319444444444453</v>
       </c>
       <c r="D450" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E450" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F450">
         <v>7</v>
@@ -9341,10 +9293,10 @@
         <v>0.9159722222222223</v>
       </c>
       <c r="D451" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E451" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F451">
         <v>55</v>
@@ -9361,10 +9313,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D452" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E452" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F452">
         <v>51</v>
@@ -9381,10 +9333,10 @@
         <v>0.91875000000000007</v>
       </c>
       <c r="D453" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E453" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -9401,7 +9353,7 @@
         <v>0.92569444444444438</v>
       </c>
       <c r="D454" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,10 +9367,10 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="D455" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E455" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F455">
         <v>19</v>
@@ -9435,10 +9387,10 @@
         <v>0.93888888888888899</v>
       </c>
       <c r="D456" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E456" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F456">
         <v>35</v>
@@ -9455,10 +9407,10 @@
         <v>0.94374999999999998</v>
       </c>
       <c r="D457" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E457" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F457">
         <v>36</v>
@@ -9475,10 +9427,10 @@
         <v>0.94513888888888886</v>
       </c>
       <c r="D458" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E458" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F458">
         <v>30</v>
@@ -9495,10 +9447,10 @@
         <v>0.9506944444444444</v>
       </c>
       <c r="D459" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E459" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F459">
         <v>16</v>
@@ -9515,10 +9467,10 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="D460" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E460" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F460">
         <v>8</v>
@@ -9535,10 +9487,10 @@
         <v>0.98402777777777783</v>
       </c>
       <c r="D461" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E461" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F461">
         <v>7</v>
@@ -9555,7 +9507,7 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="D462" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -9572,10 +9524,10 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="D463" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E463" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F463">
         <v>16</v>
@@ -9592,10 +9544,10 @@
         <v>0.31388888888888888</v>
       </c>
       <c r="D464" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E464" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F464">
         <v>38</v>
@@ -9612,10 +9564,10 @@
         <v>0.32430555555555557</v>
       </c>
       <c r="D465" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E465" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F465">
         <v>50</v>
@@ -9632,7 +9584,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D466" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E466" t="s">
         <v>10</v>
@@ -9652,10 +9604,10 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="D467" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E467" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F467">
         <v>5</v>
@@ -9672,7 +9624,7 @@
         <v>0.39027777777777778</v>
       </c>
       <c r="D468" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -9689,10 +9641,10 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="D469" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E469" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F469">
         <v>60</v>
@@ -9709,10 +9661,10 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="D470" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E470" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F470">
         <v>40</v>
@@ -9729,7 +9681,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="D471" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -9746,10 +9698,10 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="D472" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E472" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F472">
         <v>1</v>
@@ -9766,10 +9718,10 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="D473" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E473" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F473">
         <v>40</v>
@@ -9786,7 +9738,7 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="D474" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -9803,7 +9755,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D475" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -9820,10 +9772,10 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="D476" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E476" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F476">
         <v>5</v>
@@ -9840,7 +9792,7 @@
         <v>0.53055555555555556</v>
       </c>
       <c r="D477" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E477">
         <v>6</v>
@@ -9860,19 +9812,19 @@
         <v>0.53194444444444444</v>
       </c>
       <c r="D478" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E478" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F478">
         <v>34</v>
       </c>
       <c r="G478" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H478" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -9886,7 +9838,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D479" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -9903,7 +9855,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="D480" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E480" t="s">
         <v>7</v>
@@ -9923,7 +9875,7 @@
         <v>0.55763888888888891</v>
       </c>
       <c r="D481" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -9940,10 +9892,10 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="D482" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E482" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F482">
         <v>16</v>
@@ -9960,10 +9912,10 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="D483" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E483" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F483">
         <v>30</v>
@@ -9980,10 +9932,10 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="D484" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E484" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F484">
         <v>42</v>
@@ -10000,7 +9952,7 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="D485" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -10017,10 +9969,10 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="D486" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E486" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F486">
         <v>9</v>
@@ -10037,10 +9989,10 @@
         <v>0.6069444444444444</v>
       </c>
       <c r="D487" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E487" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F487">
         <v>21</v>
@@ -10057,10 +10009,10 @@
         <v>0.63263888888888886</v>
       </c>
       <c r="D488" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E488" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F488">
         <v>10</v>
@@ -10077,10 +10029,10 @@
         <v>0.6430555555555556</v>
       </c>
       <c r="D489" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E489" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F489">
         <v>40</v>
@@ -10097,10 +10049,10 @@
         <v>0.65</v>
       </c>
       <c r="D490" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E490" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F490">
         <v>10</v>
@@ -10117,10 +10069,10 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="D491" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E491" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F491">
         <v>22</v>
@@ -10137,7 +10089,7 @@
         <v>0.66527777777777775</v>
       </c>
       <c r="D492" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E492">
         <v>6</v>
@@ -10157,10 +10109,10 @@
         <v>0.66597222222222219</v>
       </c>
       <c r="D493" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E493" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F493">
         <v>29</v>
@@ -10177,10 +10129,10 @@
         <v>0.6694444444444444</v>
       </c>
       <c r="D494" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E494" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F494">
         <v>5</v>
@@ -10197,10 +10149,10 @@
         <v>0.68611111111111101</v>
       </c>
       <c r="D495" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E495" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F495">
         <v>16</v>
@@ -10217,10 +10169,10 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="D496" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E496" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F496">
         <v>31</v>
@@ -10237,19 +10189,19 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="D497" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E497" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F497">
         <v>240</v>
       </c>
       <c r="G497" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H497" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -10263,10 +10215,10 @@
         <v>0.72777777777777775</v>
       </c>
       <c r="D498" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E498" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F498">
         <v>31</v>
@@ -10283,10 +10235,10 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="D499" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E499" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F499">
         <v>11</v>
@@ -10303,10 +10255,10 @@
         <v>0.74236111111111114</v>
       </c>
       <c r="D500" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E500" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F500">
         <v>10</v>
@@ -10323,10 +10275,10 @@
         <v>0.75138888888888899</v>
       </c>
       <c r="D501" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E501" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F501">
         <v>27</v>
@@ -10343,10 +10295,10 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="D502" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E502" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F502">
         <v>9</v>
@@ -10363,10 +10315,10 @@
         <v>0.85972222222222217</v>
       </c>
       <c r="D503" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E503" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F503">
         <v>23</v>
@@ -10383,10 +10335,10 @@
         <v>0.88958333333333339</v>
       </c>
       <c r="D504" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E504" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F504">
         <v>6</v>
@@ -10403,10 +10355,10 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="D505" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E505" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F505">
         <v>24</v>
@@ -10423,10 +10375,10 @@
         <v>0.91527777777777775</v>
       </c>
       <c r="D506" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="E506" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F506">
         <v>6</v>
@@ -10443,10 +10395,10 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="D507" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E507" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F507">
         <v>44</v>
@@ -10463,10 +10415,10 @@
         <v>0.95416666666666661</v>
       </c>
       <c r="D508" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E508" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F508">
         <v>6</v>
@@ -10483,10 +10435,10 @@
         <v>0.95624999999999993</v>
       </c>
       <c r="D509" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E509" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F509">
         <v>8</v>
@@ -10503,10 +10455,10 @@
         <v>0.96250000000000002</v>
       </c>
       <c r="D510" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E510" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F510">
         <v>11</v>
@@ -10523,10 +10475,10 @@
         <v>0.99652777777777779</v>
       </c>
       <c r="D511" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E511" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F511">
         <v>42</v>
@@ -11036,8 +10988,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:H611">
+  <autoFilter ref="A1:G611">
+    <sortState ref="A2:G611">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/avtokovriki/charts/report.xlsx
+++ b/avtokovriki/charts/report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="181">
   <si>
     <t>nissan</t>
   </si>
@@ -489,6 +489,87 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>google реклама</t>
+  </si>
+  <si>
+    <t>yandex</t>
+  </si>
+  <si>
+    <t>Pajero Wagon</t>
+  </si>
+  <si>
+    <t>prom.ua</t>
+  </si>
+  <si>
+    <t>Camrt</t>
+  </si>
+  <si>
+    <t>mail.ru</t>
+  </si>
+  <si>
+    <t>e61</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>rambler</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>Sandero</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Kuga</t>
+  </si>
+  <si>
+    <t>Grand Santa Fe</t>
+  </si>
+  <si>
+    <t>Captiva</t>
+  </si>
+  <si>
+    <t>Korando</t>
+  </si>
+  <si>
+    <t>Corsa</t>
+  </si>
+  <si>
+    <t>Gelly</t>
+  </si>
+  <si>
+    <t>Emgrand</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>vk.com</t>
+  </si>
+  <si>
+    <t>Juke</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Tiggo</t>
+  </si>
+  <si>
+    <t>Touareg</t>
+  </si>
+  <si>
+    <t>Octavia Tour</t>
   </si>
 </sst>
 </file>
@@ -858,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H611"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E613" sqref="E613"/>
+    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="E631" sqref="E631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,12 +5464,6 @@
       <c r="F253">
         <v>6</v>
       </c>
-      <c r="G253" t="s">
-        <v>26</v>
-      </c>
-      <c r="H253" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -5859,7 +5934,7 @@
         <v>26</v>
       </c>
       <c r="H276" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -5968,7 +6043,7 @@
         <v>26</v>
       </c>
       <c r="H281" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -8483,7 +8558,7 @@
         <v>26</v>
       </c>
       <c r="H409" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -9131,7 +9206,7 @@
         <v>26</v>
       </c>
       <c r="H442" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -9669,6 +9744,12 @@
       <c r="F470">
         <v>40</v>
       </c>
+      <c r="G470" t="s">
+        <v>26</v>
+      </c>
+      <c r="H470" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
@@ -9824,7 +9905,7 @@
         <v>26</v>
       </c>
       <c r="H478" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -10201,7 +10282,7 @@
         <v>26</v>
       </c>
       <c r="H497" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -10491,500 +10572,4471 @@
       <c r="B512" s="1">
         <v>42682</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C512" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D512" t="s">
+        <v>18</v>
+      </c>
+      <c r="E512">
+        <v>207</v>
+      </c>
+      <c r="F512">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C513" s="4">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="D513" t="s">
+        <v>50</v>
+      </c>
+      <c r="E513" t="s">
+        <v>11</v>
+      </c>
+      <c r="F513">
+        <v>42</v>
+      </c>
+      <c r="I513" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C514" s="4">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D514" t="s">
+        <v>50</v>
+      </c>
+      <c r="E514" t="s">
+        <v>13</v>
+      </c>
+      <c r="F514">
+        <v>180</v>
+      </c>
+      <c r="G514" t="s">
+        <v>26</v>
+      </c>
+      <c r="H514" t="s">
+        <v>148</v>
+      </c>
+      <c r="I514" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C515" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D515" t="s">
+        <v>42</v>
+      </c>
+      <c r="E515" t="s">
+        <v>150</v>
+      </c>
+      <c r="F515">
+        <v>100</v>
+      </c>
+      <c r="I515" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C516" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D516" t="s">
+        <v>28</v>
+      </c>
+      <c r="E516" t="s">
+        <v>43</v>
+      </c>
+      <c r="F516">
+        <v>70</v>
+      </c>
+      <c r="G516" t="s">
+        <v>26</v>
+      </c>
+      <c r="H516" t="s">
+        <v>149</v>
+      </c>
+      <c r="I516" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C517" s="4">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D517" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" t="s">
+        <v>156</v>
+      </c>
+      <c r="F517">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B518" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C518" s="4">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="D518" t="s">
+        <v>50</v>
+      </c>
+      <c r="E518" t="s">
+        <v>13</v>
+      </c>
+      <c r="F518">
+        <v>64</v>
+      </c>
+      <c r="I518" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C519" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D519" t="s">
+        <v>28</v>
+      </c>
+      <c r="E519" t="s">
+        <v>33</v>
+      </c>
+      <c r="F519">
+        <v>20</v>
+      </c>
+      <c r="I519" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B520" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C520" s="4">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D520" t="s">
+        <v>50</v>
+      </c>
+      <c r="E520" t="s">
+        <v>13</v>
+      </c>
+      <c r="F520">
+        <v>20</v>
+      </c>
+      <c r="I520" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C521" s="4">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D521" t="s">
+        <v>50</v>
+      </c>
+      <c r="E521" t="s">
+        <v>13</v>
+      </c>
+      <c r="F521">
+        <v>80</v>
+      </c>
+      <c r="I521" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C522" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D522" t="s">
+        <v>28</v>
+      </c>
+      <c r="E522" t="s">
+        <v>34</v>
+      </c>
+      <c r="F522">
+        <v>120</v>
+      </c>
+      <c r="I522" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C523" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="D523" t="s">
+        <v>9</v>
+      </c>
+      <c r="E523" t="s">
+        <v>110</v>
+      </c>
+      <c r="F523">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C524" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D524" t="s">
+        <v>73</v>
+      </c>
+      <c r="E524" t="s">
+        <v>74</v>
+      </c>
+      <c r="F524">
+        <v>27</v>
+      </c>
+      <c r="I524" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B525" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C525" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="D525" t="s">
+        <v>50</v>
+      </c>
+      <c r="E525" t="s">
+        <v>11</v>
+      </c>
+      <c r="F525">
+        <v>16</v>
+      </c>
+      <c r="I525" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C526" s="4">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="D526" t="s">
+        <v>28</v>
+      </c>
+      <c r="E526" t="s">
+        <v>33</v>
+      </c>
+      <c r="F526">
+        <v>6</v>
+      </c>
+      <c r="I526" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C527" s="4">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D527" t="s">
+        <v>50</v>
+      </c>
+      <c r="E527" t="s">
+        <v>158</v>
+      </c>
+      <c r="F527">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C528" s="4">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="D528" t="s">
+        <v>132</v>
+      </c>
+      <c r="E528" t="s">
+        <v>134</v>
+      </c>
+      <c r="F528">
+        <v>62</v>
+      </c>
+      <c r="I528" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C529" s="4">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="D529" t="s">
+        <v>28</v>
+      </c>
+      <c r="E529" t="s">
+        <v>45</v>
+      </c>
+      <c r="F529">
+        <v>107</v>
+      </c>
+      <c r="I529" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C530" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D530" t="s">
+        <v>140</v>
+      </c>
+      <c r="E530" t="s">
+        <v>145</v>
+      </c>
+      <c r="F530">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C531" s="4">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="D531" t="s">
+        <v>28</v>
+      </c>
+      <c r="E531" t="s">
+        <v>36</v>
+      </c>
+      <c r="F531">
+        <v>12</v>
+      </c>
+      <c r="I531" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C532" s="4">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D532" t="s">
+        <v>47</v>
+      </c>
+      <c r="E532" t="s">
+        <v>160</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="I532" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C533" s="4">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D533" t="s">
+        <v>28</v>
+      </c>
+      <c r="E533" t="s">
+        <v>43</v>
+      </c>
+      <c r="F533">
+        <v>21</v>
+      </c>
+      <c r="I533" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C534" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D534" t="s">
+        <v>50</v>
+      </c>
+      <c r="E534" t="s">
+        <v>21</v>
+      </c>
+      <c r="F534">
+        <v>10</v>
+      </c>
+      <c r="I534" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B535" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C535" s="4">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="D535" t="s">
+        <v>28</v>
+      </c>
+      <c r="E535" t="s">
+        <v>35</v>
+      </c>
+      <c r="F535">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C536" s="4">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D536" t="s">
+        <v>97</v>
+      </c>
+      <c r="E536" t="s">
+        <v>98</v>
+      </c>
+      <c r="F536">
+        <v>47</v>
+      </c>
+      <c r="I536" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C537" s="4">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="D537" t="s">
+        <v>50</v>
+      </c>
+      <c r="E537" t="s">
+        <v>21</v>
+      </c>
+      <c r="F537">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C538" s="4">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="D538" t="s">
+        <v>50</v>
+      </c>
+      <c r="E538" t="s">
+        <v>11</v>
+      </c>
+      <c r="F538">
+        <v>107</v>
+      </c>
+      <c r="I538" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B539" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C539" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="D539" t="s">
+        <v>73</v>
+      </c>
+      <c r="E539" t="s">
+        <v>74</v>
+      </c>
+      <c r="F539">
+        <v>22</v>
+      </c>
+      <c r="I539" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B540" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C540" s="4">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="D540" t="s">
+        <v>121</v>
+      </c>
+      <c r="E540" t="s">
+        <v>122</v>
+      </c>
+      <c r="F540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B541" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C541" s="4">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="D541" t="s">
+        <v>28</v>
+      </c>
+      <c r="E541" t="s">
+        <v>34</v>
+      </c>
+      <c r="F541">
+        <v>51</v>
+      </c>
+      <c r="I541" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B542" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C542" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D542" t="s">
+        <v>9</v>
+      </c>
+      <c r="E542" t="s">
+        <v>108</v>
+      </c>
+      <c r="F542">
+        <v>50</v>
+      </c>
+      <c r="I542" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C543" s="4">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="D543" t="s">
+        <v>54</v>
+      </c>
+      <c r="E543" t="s">
+        <v>161</v>
+      </c>
+      <c r="F543">
+        <v>4</v>
+      </c>
+      <c r="I543" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B544" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C544" s="4">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="D544" t="s">
+        <v>50</v>
+      </c>
+      <c r="E544" t="s">
+        <v>11</v>
+      </c>
+      <c r="F544">
+        <v>27</v>
+      </c>
+      <c r="I544" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C545" s="4">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D545" t="s">
+        <v>28</v>
+      </c>
+      <c r="E545" t="s">
+        <v>35</v>
+      </c>
+      <c r="F545">
+        <v>14</v>
+      </c>
+      <c r="I545" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B546" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C546" s="4">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="D546" t="s">
+        <v>28</v>
+      </c>
+      <c r="E546" t="s">
+        <v>35</v>
+      </c>
+      <c r="F546">
+        <v>8</v>
+      </c>
+      <c r="I546" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C547" s="4">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D547" t="s">
+        <v>50</v>
+      </c>
+      <c r="E547" t="s">
+        <v>12</v>
+      </c>
+      <c r="F547">
+        <v>22</v>
+      </c>
+      <c r="I547" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B548" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C548" s="4">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D548" t="s">
+        <v>28</v>
+      </c>
+      <c r="E548" t="s">
+        <v>34</v>
+      </c>
+      <c r="F548">
+        <v>48</v>
+      </c>
+      <c r="I548" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B549" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C549" s="4">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="D549" t="s">
+        <v>28</v>
+      </c>
+      <c r="E549" t="s">
+        <v>33</v>
+      </c>
+      <c r="F549">
+        <v>41</v>
+      </c>
+      <c r="I549" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B550" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C550" s="4">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="D550" t="s">
+        <v>50</v>
+      </c>
+      <c r="E550" t="s">
+        <v>21</v>
+      </c>
+      <c r="F550">
+        <v>8</v>
+      </c>
+      <c r="I550" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C551" s="4">
+        <v>0.89513888888888893</v>
+      </c>
+      <c r="D551" t="s">
+        <v>140</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="I551" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C552" s="4">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="D552" t="s">
+        <v>50</v>
+      </c>
+      <c r="E552" t="s">
+        <v>10</v>
+      </c>
+      <c r="F552">
+        <v>17</v>
+      </c>
+      <c r="I552" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C553" s="4">
+        <v>0.96736111111111101</v>
+      </c>
+      <c r="D553" t="s">
+        <v>28</v>
+      </c>
+      <c r="E553" t="s">
+        <v>33</v>
+      </c>
+      <c r="F553">
+        <v>18</v>
+      </c>
+      <c r="I553" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B554" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C554" s="4">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="D554" t="s">
+        <v>50</v>
+      </c>
+      <c r="E554" t="s">
+        <v>7</v>
+      </c>
+      <c r="F554">
+        <v>57</v>
+      </c>
+      <c r="I554" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B555" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C555" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D555" t="s">
+        <v>28</v>
+      </c>
+      <c r="E555" t="s">
+        <v>45</v>
+      </c>
+      <c r="F555">
+        <v>31</v>
+      </c>
+      <c r="I555" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B556" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C556" s="4">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="D556" t="s">
+        <v>28</v>
+      </c>
+      <c r="E556" t="s">
+        <v>33</v>
+      </c>
+      <c r="F556">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C557" s="4">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D557" t="s">
+        <v>50</v>
+      </c>
+      <c r="E557" t="s">
+        <v>12</v>
+      </c>
+      <c r="F557">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B558" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C558" s="4">
+        <v>0.28125</v>
+      </c>
+      <c r="D558" t="s">
+        <v>41</v>
+      </c>
+      <c r="E558" t="s">
+        <v>60</v>
+      </c>
+      <c r="F558">
+        <v>13</v>
+      </c>
+      <c r="I558" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B559" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C559" s="4">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="D559" t="s">
+        <v>28</v>
+      </c>
+      <c r="E559" t="s">
+        <v>33</v>
+      </c>
+      <c r="F559">
+        <v>39</v>
+      </c>
+      <c r="I559" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C560" s="4">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D560" t="s">
+        <v>50</v>
+      </c>
+      <c r="F560">
+        <v>0</v>
+      </c>
+      <c r="I560" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C561" s="4">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D561" t="s">
+        <v>140</v>
+      </c>
+      <c r="E561" t="s">
+        <v>142</v>
+      </c>
+      <c r="F561">
+        <v>9</v>
+      </c>
+      <c r="I561" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B562" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C562" s="4">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="D562" t="s">
+        <v>54</v>
+      </c>
+      <c r="E562" t="s">
+        <v>161</v>
+      </c>
+      <c r="F562">
+        <v>76</v>
+      </c>
+      <c r="I562" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B563" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C563" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D563" t="s">
+        <v>50</v>
+      </c>
+      <c r="E563" t="s">
+        <v>11</v>
+      </c>
+      <c r="F563">
+        <v>120</v>
+      </c>
+      <c r="I563" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B564" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C564" s="4">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="D564" t="s">
+        <v>41</v>
+      </c>
+      <c r="E564" t="s">
+        <v>63</v>
+      </c>
+      <c r="F564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B565" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C565" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="D565" t="s">
+        <v>73</v>
+      </c>
+      <c r="E565" t="s">
+        <v>74</v>
+      </c>
+      <c r="F565">
+        <v>7</v>
+      </c>
+      <c r="I565" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B566" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C566" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D566" t="s">
+        <v>50</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="I566" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B567" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C567" s="4">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="D567" t="s">
+        <v>50</v>
+      </c>
+      <c r="E567" t="s">
+        <v>13</v>
+      </c>
+      <c r="F567">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C568" s="4">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="D568" t="s">
+        <v>17</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="I568" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B569" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C569" s="4">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="D569" t="s">
+        <v>140</v>
+      </c>
+      <c r="E569" t="s">
+        <v>144</v>
+      </c>
+      <c r="F569">
+        <v>18</v>
+      </c>
+      <c r="I569" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B570" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C570" s="4">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="D570" t="s">
+        <v>115</v>
+      </c>
+      <c r="E570" t="s">
+        <v>163</v>
+      </c>
+      <c r="F570">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B571" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C571" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D571" t="s">
+        <v>42</v>
+      </c>
+      <c r="E571" t="s">
+        <v>164</v>
+      </c>
+      <c r="F571">
+        <v>77</v>
+      </c>
+      <c r="I571" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C572" s="4">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="D572" t="s">
+        <v>89</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="I572" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C573" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D573" t="s">
+        <v>28</v>
+      </c>
+      <c r="E573" t="s">
+        <v>35</v>
+      </c>
+      <c r="F573">
+        <v>146</v>
+      </c>
+      <c r="G573" t="s">
+        <v>26</v>
+      </c>
+      <c r="H573" t="s">
+        <v>149</v>
+      </c>
+      <c r="I573" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B574" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C574" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="D574" t="s">
+        <v>41</v>
+      </c>
+      <c r="E574" t="s">
+        <v>63</v>
+      </c>
+      <c r="F574">
+        <v>44</v>
+      </c>
+      <c r="I574" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B575" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C575" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D575" t="s">
+        <v>41</v>
+      </c>
+      <c r="E575" t="s">
+        <v>63</v>
+      </c>
+      <c r="F575">
+        <v>35</v>
+      </c>
+      <c r="I575" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B576" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C576" s="4">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D576" t="s">
+        <v>100</v>
+      </c>
+      <c r="E576" t="s">
+        <v>165</v>
+      </c>
+      <c r="F576">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B577" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C577" s="4">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D577" t="s">
+        <v>50</v>
+      </c>
+      <c r="E577" t="s">
+        <v>29</v>
+      </c>
+      <c r="F577">
+        <v>57</v>
+      </c>
+      <c r="I577" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B578" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C578" s="4">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D578" t="s">
+        <v>50</v>
+      </c>
+      <c r="E578" t="s">
+        <v>29</v>
+      </c>
+      <c r="F578">
+        <v>25</v>
+      </c>
+      <c r="I578" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C579" s="4">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="D579" t="s">
+        <v>41</v>
+      </c>
+      <c r="E579" t="s">
+        <v>63</v>
+      </c>
+      <c r="F579">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C580" s="4">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="D580" t="s">
+        <v>73</v>
+      </c>
+      <c r="E580" t="s">
+        <v>74</v>
+      </c>
+      <c r="F580">
+        <v>54</v>
+      </c>
+      <c r="I580" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B581" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C581" s="4">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="D581" t="s">
+        <v>28</v>
+      </c>
+      <c r="E581" t="s">
+        <v>45</v>
+      </c>
+      <c r="F581">
+        <v>82</v>
+      </c>
+      <c r="I581" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B582" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C582" s="4">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="D582" t="s">
+        <v>28</v>
+      </c>
+      <c r="E582" t="s">
+        <v>43</v>
+      </c>
+      <c r="F582">
+        <v>220</v>
+      </c>
+      <c r="G582" t="s">
+        <v>26</v>
+      </c>
+      <c r="H582" t="s">
+        <v>152</v>
+      </c>
+      <c r="I582" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B583" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C583" s="4">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D583" t="s">
+        <v>115</v>
+      </c>
+      <c r="E583" t="s">
+        <v>163</v>
+      </c>
+      <c r="F583">
+        <v>76</v>
+      </c>
+      <c r="I583" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B584" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C584" s="4">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D584" t="s">
+        <v>31</v>
+      </c>
+      <c r="E584">
+        <v>6</v>
+      </c>
+      <c r="F584">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B585" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C585" s="4">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="D585" t="s">
+        <v>50</v>
+      </c>
+      <c r="E585" t="s">
+        <v>23</v>
+      </c>
+      <c r="F585">
+        <v>5</v>
+      </c>
+      <c r="I585" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B586" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C586" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D586" t="s">
+        <v>28</v>
+      </c>
+      <c r="E586" t="s">
+        <v>33</v>
+      </c>
+      <c r="F586">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B587" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C587" s="4">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="D587" t="s">
+        <v>17</v>
+      </c>
+      <c r="F587">
+        <v>0</v>
+      </c>
+      <c r="I587" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C588" s="4">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="D588" t="s">
+        <v>28</v>
+      </c>
+      <c r="E588" t="s">
+        <v>45</v>
+      </c>
+      <c r="F588">
+        <v>205</v>
+      </c>
+      <c r="G588" t="s">
+        <v>26</v>
+      </c>
+      <c r="H588" t="s">
+        <v>149</v>
+      </c>
+      <c r="I588" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C589" s="4">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D589" t="s">
+        <v>50</v>
+      </c>
+      <c r="E589" t="s">
+        <v>30</v>
+      </c>
+      <c r="F589">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B590" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C590" s="4">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="D590" t="s">
+        <v>132</v>
+      </c>
+      <c r="E590" t="s">
+        <v>134</v>
+      </c>
+      <c r="F590">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B591" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C591" s="4">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D591" t="s">
+        <v>79</v>
+      </c>
+      <c r="E591" t="s">
+        <v>166</v>
+      </c>
+      <c r="F591">
+        <v>26</v>
+      </c>
+      <c r="I591" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B592" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C592" s="4">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="D592" t="s">
+        <v>50</v>
+      </c>
+      <c r="E592" t="s">
+        <v>11</v>
+      </c>
+      <c r="F592">
+        <v>30</v>
+      </c>
+      <c r="I592" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C593" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="D593" t="s">
+        <v>44</v>
+      </c>
+      <c r="E593" t="s">
+        <v>112</v>
+      </c>
+      <c r="F593">
+        <v>150</v>
+      </c>
+      <c r="I593" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B594" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C594" s="4">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D594" t="s">
+        <v>28</v>
+      </c>
+      <c r="E594" t="s">
+        <v>33</v>
+      </c>
+      <c r="F594">
+        <v>23</v>
+      </c>
+      <c r="I594" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C595" s="4">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="D595" t="s">
+        <v>50</v>
+      </c>
+      <c r="E595" t="s">
+        <v>11</v>
+      </c>
+      <c r="F595">
+        <v>72</v>
+      </c>
+      <c r="I595" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B596" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C596" s="4">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D596" t="s">
+        <v>50</v>
+      </c>
+      <c r="E596" t="s">
+        <v>21</v>
+      </c>
+      <c r="F596">
+        <v>12</v>
+      </c>
+      <c r="I596" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B597" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C597" s="4">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="D597" t="s">
+        <v>50</v>
+      </c>
+      <c r="E597" t="s">
+        <v>23</v>
+      </c>
+      <c r="F597">
+        <v>5</v>
+      </c>
+      <c r="I597" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B598" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C598" s="4">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D598" t="s">
+        <v>28</v>
+      </c>
+      <c r="E598" t="s">
+        <v>33</v>
+      </c>
+      <c r="F598">
+        <v>27</v>
+      </c>
+      <c r="I598" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B599" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C599" s="4">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="D599" t="s">
+        <v>132</v>
+      </c>
+      <c r="E599" t="s">
+        <v>133</v>
+      </c>
+      <c r="F599">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B600" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C600" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D600" t="s">
+        <v>28</v>
+      </c>
+      <c r="E600" t="s">
+        <v>34</v>
+      </c>
+      <c r="F600">
+        <v>29</v>
+      </c>
+      <c r="I600" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B601" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C601" s="4">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="D601" t="s">
+        <v>28</v>
+      </c>
+      <c r="E601" t="s">
+        <v>33</v>
+      </c>
+      <c r="F601">
+        <v>29</v>
+      </c>
+      <c r="I601" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B602" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C602" s="4">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="D602" t="s">
+        <v>28</v>
+      </c>
+      <c r="E602" t="s">
+        <v>167</v>
+      </c>
+      <c r="F602">
+        <v>69</v>
+      </c>
+      <c r="I602" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B603" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C603" s="4">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="D603" t="s">
+        <v>28</v>
+      </c>
+      <c r="E603" t="s">
+        <v>34</v>
+      </c>
+      <c r="F603">
+        <v>46</v>
+      </c>
+      <c r="I603" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B604" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C604" s="4">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="D604" t="s">
+        <v>41</v>
+      </c>
+      <c r="E604" t="s">
+        <v>168</v>
+      </c>
+      <c r="F604">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B605" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C605" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D605" t="s">
+        <v>50</v>
+      </c>
+      <c r="E605" t="s">
+        <v>12</v>
+      </c>
+      <c r="F605">
+        <v>200</v>
+      </c>
+      <c r="I605" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B606" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C606" s="4">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="D606" t="s">
+        <v>50</v>
+      </c>
+      <c r="E606" t="s">
+        <v>11</v>
+      </c>
+      <c r="F606">
+        <v>58</v>
+      </c>
+      <c r="I606" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B607" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C607" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="D607" t="s">
+        <v>115</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+      <c r="I607" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B608" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C608" s="4">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="D608" t="s">
+        <v>89</v>
+      </c>
+      <c r="E608" t="s">
+        <v>151</v>
+      </c>
+      <c r="F608">
+        <v>38</v>
+      </c>
+      <c r="I608" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B609" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C609" s="4">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D609" t="s">
+        <v>50</v>
+      </c>
+      <c r="E609" t="s">
+        <v>7</v>
+      </c>
+      <c r="F609">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B610" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C610" s="4">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="D610" t="s">
+        <v>136</v>
+      </c>
+      <c r="E610" t="s">
+        <v>169</v>
+      </c>
+      <c r="F610">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
+      </c>
+      <c r="B611" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C611" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D611" t="s">
+        <v>28</v>
+      </c>
+      <c r="F611">
+        <v>0</v>
+      </c>
+      <c r="I611" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C612" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D612" t="s">
+        <v>73</v>
+      </c>
+      <c r="E612" t="s">
+        <v>74</v>
+      </c>
+      <c r="F612">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C613" s="4">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="D613" t="s">
+        <v>41</v>
+      </c>
+      <c r="E613" t="s">
+        <v>60</v>
+      </c>
+      <c r="F613">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="B614" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C614" s="4">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="D614" t="s">
+        <v>41</v>
+      </c>
+      <c r="E614" t="s">
+        <v>63</v>
+      </c>
+      <c r="F614">
+        <v>19</v>
+      </c>
+      <c r="I614" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="B615" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C615" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D615" t="s">
+        <v>28</v>
+      </c>
+      <c r="E615" t="s">
+        <v>35</v>
+      </c>
+      <c r="F615">
+        <v>31</v>
+      </c>
+      <c r="I615" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C616" s="4">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D616" t="s">
+        <v>100</v>
+      </c>
+      <c r="E616" t="s">
+        <v>104</v>
+      </c>
+      <c r="F616">
+        <v>8</v>
+      </c>
+      <c r="I616" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C617" s="4">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="D617" t="s">
+        <v>28</v>
+      </c>
+      <c r="E617" t="s">
+        <v>34</v>
+      </c>
+      <c r="F617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C618" s="4">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="D618" t="s">
+        <v>73</v>
+      </c>
+      <c r="E618" t="s">
+        <v>75</v>
+      </c>
+      <c r="F618">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C619" s="4">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D619" t="s">
+        <v>50</v>
+      </c>
+      <c r="E619" t="s">
+        <v>21</v>
+      </c>
+      <c r="F619">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C620" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D620" t="s">
+        <v>50</v>
+      </c>
+      <c r="E620" t="s">
+        <v>12</v>
+      </c>
+      <c r="F620">
+        <v>15</v>
+      </c>
+      <c r="I620" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C621" s="4">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="D621" t="s">
+        <v>115</v>
+      </c>
+      <c r="E621" t="s">
+        <v>170</v>
+      </c>
+      <c r="F621">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="B622" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C622" s="4">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="D622" t="s">
+        <v>28</v>
+      </c>
+      <c r="E622" t="s">
+        <v>38</v>
+      </c>
+      <c r="F622">
+        <v>300</v>
+      </c>
+      <c r="G622" t="s">
+        <v>26</v>
+      </c>
+      <c r="H622" t="s">
+        <v>152</v>
+      </c>
+      <c r="I622" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="B623" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C623" s="4">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="D623" t="s">
+        <v>171</v>
+      </c>
+      <c r="E623" t="s">
+        <v>172</v>
+      </c>
+      <c r="F623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C624" s="4">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="D624" t="s">
+        <v>50</v>
+      </c>
+      <c r="E624" t="s">
+        <v>23</v>
+      </c>
+      <c r="F624">
+        <v>90</v>
+      </c>
+      <c r="G624" t="s">
+        <v>26</v>
+      </c>
+      <c r="H624" t="s">
+        <v>152</v>
+      </c>
+      <c r="I624" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C625" s="4">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="D625" t="s">
+        <v>28</v>
+      </c>
+      <c r="E625" t="s">
+        <v>33</v>
+      </c>
+      <c r="F625">
+        <v>300</v>
+      </c>
+      <c r="I625" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C626" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D626" t="s">
+        <v>17</v>
+      </c>
+      <c r="F626">
+        <v>0</v>
+      </c>
+      <c r="I626" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C627" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D627" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" t="s">
+        <v>173</v>
+      </c>
+      <c r="F627">
+        <v>0</v>
+      </c>
+      <c r="I627" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C628" s="4">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D628" t="s">
+        <v>28</v>
+      </c>
+      <c r="E628" t="s">
+        <v>45</v>
+      </c>
+      <c r="F628">
+        <v>55</v>
+      </c>
+      <c r="I628" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C629" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D629" t="s">
+        <v>50</v>
+      </c>
+      <c r="E629" t="s">
+        <v>11</v>
+      </c>
+      <c r="F629">
+        <v>11</v>
+      </c>
+      <c r="I629" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C630" s="4">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D630" t="s">
+        <v>28</v>
+      </c>
+      <c r="E630" t="s">
+        <v>45</v>
+      </c>
+      <c r="F630">
+        <v>300</v>
+      </c>
+      <c r="G630" t="s">
+        <v>26</v>
+      </c>
+      <c r="H630" t="s">
+        <v>152</v>
+      </c>
+      <c r="I630" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C631" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="D631" t="s">
+        <v>50</v>
+      </c>
+      <c r="E631" t="s">
+        <v>7</v>
+      </c>
+      <c r="F631">
+        <v>1</v>
+      </c>
+      <c r="I631" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C632" s="4">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="D632" t="s">
+        <v>50</v>
+      </c>
+      <c r="E632" t="s">
+        <v>11</v>
+      </c>
+      <c r="F632">
+        <v>2</v>
+      </c>
+      <c r="I632" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C633" s="4">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="D633" t="s">
+        <v>50</v>
+      </c>
+      <c r="E633" t="s">
+        <v>7</v>
+      </c>
+      <c r="F633">
+        <v>35</v>
+      </c>
+      <c r="I633" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C634" s="4">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D634" t="s">
+        <v>50</v>
+      </c>
+      <c r="E634" t="s">
+        <v>11</v>
+      </c>
+      <c r="F634">
+        <v>300</v>
+      </c>
+      <c r="G634" t="s">
+        <v>26</v>
+      </c>
+      <c r="H634" t="s">
+        <v>152</v>
+      </c>
+      <c r="I634" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C635" s="4">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="D635" t="s">
+        <v>97</v>
+      </c>
+      <c r="F635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636" s="1">
+        <v>42684</v>
+      </c>
+      <c r="C636" s="4">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D636" t="s">
+        <v>50</v>
+      </c>
+      <c r="E636" t="s">
+        <v>13</v>
+      </c>
+      <c r="F636">
+        <v>36</v>
+      </c>
+      <c r="I636" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C637" s="4">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="D637" t="s">
+        <v>73</v>
+      </c>
+      <c r="E637" t="s">
+        <v>74</v>
+      </c>
+      <c r="F637">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="B638" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C638" s="4">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="D638" t="s">
+        <v>73</v>
+      </c>
+      <c r="E638" t="s">
+        <v>74</v>
+      </c>
+      <c r="F638">
+        <v>5</v>
+      </c>
+      <c r="I638" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="B639" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C639" s="4">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="D639" t="s">
+        <v>50</v>
+      </c>
+      <c r="E639" t="s">
+        <v>11</v>
+      </c>
+      <c r="F639">
+        <v>41</v>
+      </c>
+      <c r="I639" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="B640" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C640" s="4">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="D640" t="s">
+        <v>73</v>
+      </c>
+      <c r="E640" t="s">
+        <v>75</v>
+      </c>
+      <c r="F640">
+        <v>110</v>
+      </c>
+      <c r="I640" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="B641" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C641" s="4">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D641" t="s">
+        <v>50</v>
+      </c>
+      <c r="E641" t="s">
+        <v>12</v>
+      </c>
+      <c r="F641">
+        <v>17</v>
+      </c>
+      <c r="I641" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="B642" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C642" s="4">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="D642" t="s">
+        <v>50</v>
+      </c>
+      <c r="E642" t="s">
+        <v>23</v>
+      </c>
+      <c r="F642">
+        <v>320</v>
+      </c>
+      <c r="I642" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="B643" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C643" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D643" t="s">
+        <v>50</v>
+      </c>
+      <c r="E643" t="s">
+        <v>11</v>
+      </c>
+      <c r="F643">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="B644" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C644" s="4">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D644" t="s">
+        <v>115</v>
+      </c>
+      <c r="E644" t="s">
+        <v>163</v>
+      </c>
+      <c r="F644">
+        <v>34</v>
+      </c>
+      <c r="I644" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="B645" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C645" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="D645" t="s">
+        <v>28</v>
+      </c>
+      <c r="E645" t="s">
+        <v>33</v>
+      </c>
+      <c r="F645">
+        <v>600</v>
+      </c>
+      <c r="I645" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="B646" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C646" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="D646" t="s">
+        <v>50</v>
+      </c>
+      <c r="E646" t="s">
+        <v>12</v>
+      </c>
+      <c r="F646">
+        <v>69</v>
+      </c>
+      <c r="I646" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="B647" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C647" s="4">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="D647" t="s">
+        <v>28</v>
+      </c>
+      <c r="E647" t="s">
+        <v>46</v>
+      </c>
+      <c r="F647">
+        <v>51</v>
+      </c>
+      <c r="I647" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="B648" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C648" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D648" t="s">
+        <v>17</v>
+      </c>
+      <c r="F648">
+        <v>0</v>
+      </c>
+      <c r="I648" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="B649" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C649" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D649" t="s">
+        <v>28</v>
+      </c>
+      <c r="E649" t="s">
+        <v>35</v>
+      </c>
+      <c r="F649">
+        <v>45</v>
+      </c>
+      <c r="I649" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="B650" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C650" s="4">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="D650" t="s">
+        <v>50</v>
+      </c>
+      <c r="E650" t="s">
+        <v>13</v>
+      </c>
+      <c r="F650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>650</v>
+      </c>
+      <c r="B651" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C651" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D651" t="s">
+        <v>73</v>
+      </c>
+      <c r="E651" t="s">
+        <v>74</v>
+      </c>
+      <c r="F651">
+        <v>7</v>
+      </c>
+      <c r="I651" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>651</v>
+      </c>
+      <c r="B652" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C652" s="4">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="D652" t="s">
+        <v>44</v>
+      </c>
+      <c r="E652" t="s">
+        <v>175</v>
+      </c>
+      <c r="F652">
+        <v>27</v>
+      </c>
+      <c r="I652" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>652</v>
+      </c>
+      <c r="B653" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C653" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D653" t="s">
+        <v>50</v>
+      </c>
+      <c r="F653">
+        <v>0</v>
+      </c>
+      <c r="I653" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>653</v>
+      </c>
+      <c r="B654" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C654" s="4">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="D654" t="s">
+        <v>50</v>
+      </c>
+      <c r="E654" t="s">
+        <v>12</v>
+      </c>
+      <c r="F654">
+        <v>19</v>
+      </c>
+      <c r="I654" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>654</v>
+      </c>
+      <c r="B655" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C655" s="4">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D655" t="s">
+        <v>28</v>
+      </c>
+      <c r="E655" t="s">
+        <v>33</v>
+      </c>
+      <c r="F655">
+        <v>1</v>
+      </c>
+      <c r="I655" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>655</v>
+      </c>
+      <c r="B656" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C656" s="4">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="D656" t="s">
+        <v>140</v>
+      </c>
+      <c r="E656" t="s">
+        <v>142</v>
+      </c>
+      <c r="F656">
+        <v>8</v>
+      </c>
+      <c r="I656" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>656</v>
+      </c>
+      <c r="B657" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C657" s="4">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="D657" t="s">
+        <v>50</v>
+      </c>
+      <c r="E657" t="s">
+        <v>11</v>
+      </c>
+      <c r="F657">
+        <v>5</v>
+      </c>
+      <c r="I657" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>657</v>
+      </c>
+      <c r="B658" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C658" s="4">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="D658" t="s">
+        <v>50</v>
+      </c>
+      <c r="E658" t="s">
+        <v>12</v>
+      </c>
+      <c r="F658">
+        <v>10</v>
+      </c>
+      <c r="I658" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>658</v>
+      </c>
+      <c r="B659" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C659" s="4">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D659" t="s">
+        <v>28</v>
+      </c>
+      <c r="E659" t="s">
+        <v>45</v>
+      </c>
+      <c r="F659">
+        <v>33</v>
+      </c>
+      <c r="I659" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>659</v>
+      </c>
+      <c r="B660" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C660" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D660" t="s">
+        <v>50</v>
+      </c>
+      <c r="F660">
+        <v>0</v>
+      </c>
+      <c r="I660" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>660</v>
+      </c>
+      <c r="B661" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C661" s="4">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D661" t="s">
+        <v>28</v>
+      </c>
+      <c r="E661" t="s">
+        <v>35</v>
+      </c>
+      <c r="F661">
+        <v>82</v>
+      </c>
+      <c r="I661" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>661</v>
+      </c>
+      <c r="B662" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C662" s="4">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="D662" t="s">
+        <v>50</v>
+      </c>
+      <c r="E662" t="s">
+        <v>24</v>
+      </c>
+      <c r="F662">
+        <v>68</v>
+      </c>
+      <c r="I662" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>662</v>
+      </c>
+      <c r="B663" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C663" s="4">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="D663" t="s">
+        <v>28</v>
+      </c>
+      <c r="E663" t="s">
+        <v>38</v>
+      </c>
+      <c r="F663">
+        <v>93</v>
+      </c>
+      <c r="I663" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>663</v>
+      </c>
+      <c r="B664" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C664" s="4">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="D664" t="s">
+        <v>171</v>
+      </c>
+      <c r="E664" t="s">
+        <v>176</v>
+      </c>
+      <c r="F664">
+        <v>7</v>
+      </c>
+      <c r="I664" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>664</v>
+      </c>
+      <c r="B665" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C665" s="4">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D665" t="s">
+        <v>28</v>
+      </c>
+      <c r="F665">
+        <v>0</v>
+      </c>
+      <c r="I665" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>665</v>
+      </c>
+      <c r="B666" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C666" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D666" t="s">
+        <v>42</v>
+      </c>
+      <c r="E666" t="s">
+        <v>177</v>
+      </c>
+      <c r="F666">
+        <v>9</v>
+      </c>
+      <c r="I666" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>666</v>
+      </c>
+      <c r="B667" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C667" s="4">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D667" t="s">
+        <v>58</v>
+      </c>
+      <c r="E667" t="s">
+        <v>178</v>
+      </c>
+      <c r="F667">
+        <v>25</v>
+      </c>
+      <c r="I667" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>667</v>
+      </c>
+      <c r="B668" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C668" s="4">
+        <v>0.84305555555555556</v>
+      </c>
+      <c r="D668" t="s">
+        <v>50</v>
+      </c>
+      <c r="E668" t="s">
+        <v>21</v>
+      </c>
+      <c r="F668">
+        <v>30</v>
+      </c>
+      <c r="I668" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>668</v>
+      </c>
+      <c r="B669" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C669" s="4">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="D669" t="s">
+        <v>18</v>
+      </c>
+      <c r="E669" t="s">
+        <v>120</v>
+      </c>
+      <c r="F669">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>669</v>
+      </c>
+      <c r="B670" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C670" s="4">
+        <v>0.85625000000000007</v>
+      </c>
+      <c r="D670" t="s">
+        <v>171</v>
+      </c>
+      <c r="E670" t="s">
+        <v>176</v>
+      </c>
+      <c r="F670">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C671" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="D671" t="s">
+        <v>28</v>
+      </c>
+      <c r="E671" t="s">
+        <v>36</v>
+      </c>
+      <c r="F671">
+        <v>15</v>
+      </c>
+      <c r="I671" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C672" s="4">
+        <v>0.86736111111111114</v>
+      </c>
+      <c r="D672" t="s">
+        <v>28</v>
+      </c>
+      <c r="E672" t="s">
+        <v>34</v>
+      </c>
+      <c r="F672">
+        <v>45</v>
+      </c>
+      <c r="I672" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C673" s="4">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D673" t="s">
+        <v>140</v>
+      </c>
+      <c r="E673" t="s">
+        <v>179</v>
+      </c>
+      <c r="F673">
+        <v>29</v>
+      </c>
+      <c r="I673" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C674" s="4">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="D674" t="s">
+        <v>28</v>
+      </c>
+      <c r="E674" t="s">
+        <v>33</v>
+      </c>
+      <c r="F674">
+        <v>12</v>
+      </c>
+      <c r="I674" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C675" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D675" t="s">
+        <v>50</v>
+      </c>
+      <c r="E675" t="s">
+        <v>11</v>
+      </c>
+      <c r="F675">
+        <v>12</v>
+      </c>
+      <c r="I675" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C676" s="4">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="D676" t="s">
+        <v>28</v>
+      </c>
+      <c r="E676" t="s">
+        <v>40</v>
+      </c>
+      <c r="F676">
+        <v>8</v>
+      </c>
+      <c r="I676" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C677" s="4">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="D677" t="s">
+        <v>9</v>
+      </c>
+      <c r="E677" t="s">
+        <v>108</v>
+      </c>
+      <c r="F677">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C678" s="4">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="D678" t="s">
+        <v>28</v>
+      </c>
+      <c r="E678" t="s">
+        <v>167</v>
+      </c>
+      <c r="F678">
+        <v>37</v>
+      </c>
+      <c r="I678" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1">
+        <v>42685</v>
+      </c>
+      <c r="C679" s="4">
+        <v>0.98819444444444438</v>
+      </c>
+      <c r="D679" t="s">
+        <v>50</v>
+      </c>
+      <c r="E679" t="s">
+        <v>11</v>
+      </c>
+      <c r="F679">
+        <v>32</v>
+      </c>
+      <c r="I679" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C680" s="4">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="D680" t="s">
+        <v>28</v>
+      </c>
+      <c r="E680" t="s">
+        <v>33</v>
+      </c>
+      <c r="F680">
+        <v>120</v>
+      </c>
+      <c r="I680" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C681" s="4">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="D681" t="s">
+        <v>28</v>
+      </c>
+      <c r="E681" t="s">
+        <v>45</v>
+      </c>
+      <c r="F681">
+        <v>18</v>
+      </c>
+      <c r="I681" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C682" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="D682" t="s">
+        <v>28</v>
+      </c>
+      <c r="E682" t="s">
+        <v>33</v>
+      </c>
+      <c r="F682">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C683" s="4">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="D683" t="s">
+        <v>50</v>
+      </c>
+      <c r="E683" t="s">
+        <v>12</v>
+      </c>
+      <c r="F683">
+        <v>24</v>
+      </c>
+      <c r="I683" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C684" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="D684" t="s">
+        <v>28</v>
+      </c>
+      <c r="E684" t="s">
+        <v>33</v>
+      </c>
+      <c r="F684">
+        <v>60</v>
+      </c>
+      <c r="I684" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C685" s="4">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D685" t="s">
+        <v>41</v>
+      </c>
+      <c r="E685" t="s">
+        <v>63</v>
+      </c>
+      <c r="F685">
+        <v>51</v>
+      </c>
+      <c r="I685" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C686" s="4">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D686" t="s">
+        <v>50</v>
+      </c>
+      <c r="F686">
+        <v>0</v>
+      </c>
+      <c r="I686" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C687" s="4">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="D687" t="s">
+        <v>28</v>
+      </c>
+      <c r="E687" t="s">
+        <v>38</v>
+      </c>
+      <c r="F687">
+        <v>17</v>
+      </c>
+      <c r="I687" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>687</v>
+      </c>
+      <c r="B688" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C688" s="4">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="D688" t="s">
+        <v>28</v>
+      </c>
+      <c r="E688" t="s">
+        <v>35</v>
+      </c>
+      <c r="F688">
+        <v>37</v>
+      </c>
+      <c r="I688" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>688</v>
+      </c>
+      <c r="B689" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C689" s="4">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D689" t="s">
+        <v>43</v>
+      </c>
+      <c r="F689">
+        <v>10</v>
+      </c>
+      <c r="I689" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>689</v>
+      </c>
+      <c r="B690" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C690" s="4">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D690" t="s">
+        <v>66</v>
+      </c>
+      <c r="E690" t="s">
+        <v>69</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>690</v>
+      </c>
+      <c r="B691" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C691" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D691" t="s">
+        <v>140</v>
+      </c>
+      <c r="E691" t="s">
+        <v>141</v>
+      </c>
+      <c r="F691">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>691</v>
+      </c>
+      <c r="B692" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C692" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D692" t="s">
+        <v>50</v>
+      </c>
+      <c r="E692" t="s">
+        <v>11</v>
+      </c>
+      <c r="F692">
+        <v>12</v>
+      </c>
+      <c r="I692" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>692</v>
+      </c>
+      <c r="B693" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C693" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="D693" t="s">
+        <v>28</v>
+      </c>
+      <c r="E693" t="s">
+        <v>45</v>
+      </c>
+      <c r="F693">
+        <v>40</v>
+      </c>
+      <c r="G693" t="s">
+        <v>26</v>
+      </c>
+      <c r="H693" t="s">
+        <v>152</v>
+      </c>
+      <c r="I693" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>693</v>
+      </c>
+      <c r="B694" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C694" s="4">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D694" t="s">
+        <v>50</v>
+      </c>
+      <c r="E694" t="s">
+        <v>7</v>
+      </c>
+      <c r="F694">
+        <v>13</v>
+      </c>
+      <c r="I694" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>694</v>
+      </c>
+      <c r="B695" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C695" s="4">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="D695" t="s">
+        <v>42</v>
+      </c>
+      <c r="E695" t="s">
+        <v>72</v>
+      </c>
+      <c r="F695">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>695</v>
+      </c>
+      <c r="B696" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C696" s="4">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D696" t="s">
+        <v>28</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+      <c r="I696" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>696</v>
+      </c>
+      <c r="B697" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C697" s="4">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="D697" t="s">
+        <v>50</v>
+      </c>
+      <c r="E697" t="s">
+        <v>11</v>
+      </c>
+      <c r="F697">
+        <v>37</v>
+      </c>
+      <c r="I697" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>697</v>
+      </c>
+      <c r="B698" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C698" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D698" t="s">
+        <v>50</v>
+      </c>
+      <c r="F698">
+        <v>0</v>
+      </c>
+      <c r="I698" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>698</v>
+      </c>
+      <c r="B699" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C699" s="4">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="D699" t="s">
+        <v>42</v>
+      </c>
+      <c r="E699" t="s">
+        <v>123</v>
+      </c>
+      <c r="F699">
+        <v>160</v>
+      </c>
+      <c r="G699" t="s">
+        <v>26</v>
+      </c>
+      <c r="H699" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>699</v>
+      </c>
+      <c r="B700" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C700" s="4">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="D700" t="s">
+        <v>50</v>
+      </c>
+      <c r="E700" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>700</v>
+      </c>
+      <c r="B701" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C701" s="4">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D701" t="s">
+        <v>97</v>
+      </c>
+      <c r="E701" t="s">
+        <v>98</v>
+      </c>
+      <c r="F701">
+        <v>150</v>
+      </c>
+      <c r="I701" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>701</v>
+      </c>
+      <c r="B702" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C702" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="D702" t="s">
+        <v>50</v>
+      </c>
+      <c r="E702" t="s">
+        <v>13</v>
+      </c>
+      <c r="F702">
+        <v>85</v>
+      </c>
+      <c r="I702" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>702</v>
+      </c>
+      <c r="B703" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C703" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D703" t="s">
+        <v>41</v>
+      </c>
+      <c r="E703" t="s">
+        <v>63</v>
+      </c>
+      <c r="F703">
+        <v>15</v>
+      </c>
+      <c r="I703" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>703</v>
+      </c>
+      <c r="B704" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C704" s="4">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="D704" t="s">
+        <v>50</v>
+      </c>
+      <c r="E704" t="s">
+        <v>7</v>
+      </c>
+      <c r="F704">
+        <v>17</v>
+      </c>
+      <c r="I704" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>704</v>
+      </c>
+      <c r="B705" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C705" s="4">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="D705" t="s">
+        <v>28</v>
+      </c>
+      <c r="F705">
+        <v>0</v>
+      </c>
+      <c r="I705" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>705</v>
+      </c>
+      <c r="B706" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C706" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D706" t="s">
+        <v>50</v>
+      </c>
+      <c r="E706" t="s">
+        <v>23</v>
+      </c>
+      <c r="F706">
+        <v>30</v>
+      </c>
+      <c r="I706" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>706</v>
+      </c>
+      <c r="B707" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C707" s="4">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D707" t="s">
+        <v>132</v>
+      </c>
+      <c r="E707" t="s">
+        <v>180</v>
+      </c>
+      <c r="F707">
+        <v>31</v>
+      </c>
+      <c r="I707" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>707</v>
+      </c>
+      <c r="B708" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C708" s="4">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="D708" t="s">
+        <v>41</v>
+      </c>
+      <c r="E708" t="s">
+        <v>63</v>
+      </c>
+      <c r="F708">
+        <v>10</v>
+      </c>
+      <c r="I708" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>708</v>
+      </c>
+      <c r="B709" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C709" s="4">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D709" t="s">
+        <v>50</v>
+      </c>
+      <c r="F709">
+        <v>0</v>
+      </c>
+      <c r="I709" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>709</v>
+      </c>
+      <c r="B710" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C710" s="4">
+        <v>0.90208333333333324</v>
+      </c>
+      <c r="D710" t="s">
+        <v>50</v>
+      </c>
+      <c r="E710" t="s">
+        <v>12</v>
+      </c>
+      <c r="F710">
+        <v>42</v>
+      </c>
+      <c r="I710" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>710</v>
+      </c>
+      <c r="B711" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C711" s="4">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D711" t="s">
+        <v>50</v>
+      </c>
+      <c r="E711" t="s">
+        <v>12</v>
+      </c>
+      <c r="F711">
+        <v>1</v>
+      </c>
+      <c r="I711" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/avtokovriki/charts/report.xlsx
+++ b/avtokovriki/charts/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\cosmolady.github.io\avtokovriki\charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владимир\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$611</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$965</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="202">
   <si>
     <t>nissan</t>
   </si>
@@ -571,6 +571,69 @@
   <si>
     <t>Octavia Tour</t>
   </si>
+  <si>
+    <t>B-Max</t>
+  </si>
+  <si>
+    <t>ix35</t>
+  </si>
+  <si>
+    <t>Kadet</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>kidstaff</t>
+  </si>
+  <si>
+    <t>CK-2</t>
+  </si>
+  <si>
+    <t>SX4</t>
+  </si>
+  <si>
+    <t>Outback</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Tiguan</t>
+  </si>
+  <si>
+    <t>Dokker</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>Doblo</t>
+  </si>
+  <si>
+    <t>fiat-club</t>
+  </si>
+  <si>
+    <t>Cruze</t>
+  </si>
+  <si>
+    <t>forum.autoua</t>
+  </si>
+  <si>
+    <t>Chery</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
 </sst>
 </file>
 
@@ -939,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:I1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="E631" sqref="E631"/>
+    <sheetView tabSelected="1" topLeftCell="A1092" workbookViewId="0">
+      <selection activeCell="A1100" sqref="A1100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,6 +1015,7 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12156,7 +12220,7 @@
         <v>26</v>
       </c>
       <c r="H582" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I582" t="s">
         <v>154</v>
@@ -15039,8 +15103,8826 @@
         <v>154</v>
       </c>
     </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>711</v>
+      </c>
+      <c r="B712" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C712" s="4">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D712" t="s">
+        <v>132</v>
+      </c>
+      <c r="E712" t="s">
+        <v>180</v>
+      </c>
+      <c r="F712">
+        <v>22</v>
+      </c>
+      <c r="I712" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>712</v>
+      </c>
+      <c r="B713" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C713" s="4">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="D713" t="s">
+        <v>41</v>
+      </c>
+      <c r="E713" t="s">
+        <v>63</v>
+      </c>
+      <c r="F713">
+        <v>6</v>
+      </c>
+      <c r="I713" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>713</v>
+      </c>
+      <c r="B714" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C714" s="4">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="D714" t="s">
+        <v>50</v>
+      </c>
+      <c r="E714" t="s">
+        <v>29</v>
+      </c>
+      <c r="F714">
+        <v>31</v>
+      </c>
+      <c r="I714" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>714</v>
+      </c>
+      <c r="B715" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C715" s="4">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D715" t="s">
+        <v>28</v>
+      </c>
+      <c r="E715" t="s">
+        <v>33</v>
+      </c>
+      <c r="F715">
+        <v>13</v>
+      </c>
+      <c r="I715" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>715</v>
+      </c>
+      <c r="B716" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C716" s="4">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D716" t="s">
+        <v>50</v>
+      </c>
+      <c r="E716" t="s">
+        <v>12</v>
+      </c>
+      <c r="F716">
+        <v>180</v>
+      </c>
+      <c r="G716" t="s">
+        <v>26</v>
+      </c>
+      <c r="H716" t="s">
+        <v>149</v>
+      </c>
+      <c r="I716" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>716</v>
+      </c>
+      <c r="B717" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C717" s="4">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="D717" t="s">
+        <v>50</v>
+      </c>
+      <c r="E717" t="s">
+        <v>13</v>
+      </c>
+      <c r="F717">
+        <v>11</v>
+      </c>
+      <c r="I717" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>717</v>
+      </c>
+      <c r="B718" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C718" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D718" t="s">
+        <v>132</v>
+      </c>
+      <c r="E718" t="s">
+        <v>134</v>
+      </c>
+      <c r="F718">
+        <v>16</v>
+      </c>
+      <c r="I718" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>718</v>
+      </c>
+      <c r="B719" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C719" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D719" t="s">
+        <v>41</v>
+      </c>
+      <c r="E719" t="s">
+        <v>63</v>
+      </c>
+      <c r="F719">
+        <v>46</v>
+      </c>
+      <c r="I719" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>719</v>
+      </c>
+      <c r="B720" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C720" s="4">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="D720" t="s">
+        <v>50</v>
+      </c>
+      <c r="E720" t="s">
+        <v>10</v>
+      </c>
+      <c r="F720">
+        <v>13</v>
+      </c>
+      <c r="I720" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>720</v>
+      </c>
+      <c r="B721" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C721" s="4">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="D721" t="s">
+        <v>79</v>
+      </c>
+      <c r="E721" t="s">
+        <v>181</v>
+      </c>
+      <c r="F721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>721</v>
+      </c>
+      <c r="B722" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C722" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="D722" t="s">
+        <v>50</v>
+      </c>
+      <c r="E722" t="s">
+        <v>11</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+      <c r="I722" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>722</v>
+      </c>
+      <c r="B723" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C723" s="4">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D723" t="s">
+        <v>28</v>
+      </c>
+      <c r="E723" t="s">
+        <v>38</v>
+      </c>
+      <c r="F723">
+        <v>120</v>
+      </c>
+      <c r="G723" t="s">
+        <v>26</v>
+      </c>
+      <c r="H723" t="s">
+        <v>152</v>
+      </c>
+      <c r="I723" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>723</v>
+      </c>
+      <c r="B724" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C724" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D724" t="s">
+        <v>42</v>
+      </c>
+      <c r="E724" t="s">
+        <v>150</v>
+      </c>
+      <c r="F724">
+        <v>240</v>
+      </c>
+      <c r="G724" t="s">
+        <v>26</v>
+      </c>
+      <c r="H724" t="s">
+        <v>152</v>
+      </c>
+      <c r="I724" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>724</v>
+      </c>
+      <c r="B725" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C725" s="4">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D725" t="s">
+        <v>41</v>
+      </c>
+      <c r="E725" t="s">
+        <v>63</v>
+      </c>
+      <c r="F725">
+        <v>40</v>
+      </c>
+      <c r="I725" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>725</v>
+      </c>
+      <c r="B726" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C726" s="4">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="D726" t="s">
+        <v>28</v>
+      </c>
+      <c r="E726" t="s">
+        <v>33</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+      <c r="I726" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>726</v>
+      </c>
+      <c r="B727" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C727" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D727" t="s">
+        <v>50</v>
+      </c>
+      <c r="E727" t="s">
+        <v>10</v>
+      </c>
+      <c r="F727">
+        <v>51</v>
+      </c>
+      <c r="I727" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>727</v>
+      </c>
+      <c r="B728" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C728" s="4">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="D728" t="s">
+        <v>50</v>
+      </c>
+      <c r="E728" t="s">
+        <v>13</v>
+      </c>
+      <c r="F728">
+        <v>23</v>
+      </c>
+      <c r="I728" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>728</v>
+      </c>
+      <c r="B729" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C729" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D729" t="s">
+        <v>50</v>
+      </c>
+      <c r="E729" t="s">
+        <v>21</v>
+      </c>
+      <c r="F729">
+        <v>7</v>
+      </c>
+      <c r="I729" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C730" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D730" t="s">
+        <v>41</v>
+      </c>
+      <c r="E730" t="s">
+        <v>63</v>
+      </c>
+      <c r="F730">
+        <v>31</v>
+      </c>
+      <c r="I730" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C731" s="4">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="D731" t="s">
+        <v>50</v>
+      </c>
+      <c r="E731" t="s">
+        <v>23</v>
+      </c>
+      <c r="F731">
+        <v>31</v>
+      </c>
+      <c r="I731" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C732" s="4">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="D732" t="s">
+        <v>50</v>
+      </c>
+      <c r="E732" t="s">
+        <v>11</v>
+      </c>
+      <c r="F732">
+        <v>9</v>
+      </c>
+      <c r="I732" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C733" s="4">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="D733" t="s">
+        <v>28</v>
+      </c>
+      <c r="E733" t="s">
+        <v>34</v>
+      </c>
+      <c r="F733">
+        <v>32</v>
+      </c>
+      <c r="I733" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C734" s="4">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="D734" t="s">
+        <v>132</v>
+      </c>
+      <c r="E734" t="s">
+        <v>134</v>
+      </c>
+      <c r="F734">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C735" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="D735" t="s">
+        <v>50</v>
+      </c>
+      <c r="F735">
+        <v>0</v>
+      </c>
+      <c r="I735" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C736" s="4">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="D736" t="s">
+        <v>9</v>
+      </c>
+      <c r="E736" t="s">
+        <v>108</v>
+      </c>
+      <c r="F736">
+        <v>14</v>
+      </c>
+      <c r="I736" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C737" s="4">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D737" t="s">
+        <v>28</v>
+      </c>
+      <c r="E737" t="s">
+        <v>45</v>
+      </c>
+      <c r="F737">
+        <v>7</v>
+      </c>
+      <c r="I737" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C738" s="4">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="D738" t="s">
+        <v>50</v>
+      </c>
+      <c r="E738" t="s">
+        <v>12</v>
+      </c>
+      <c r="F738">
+        <v>120</v>
+      </c>
+      <c r="I738" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C739" s="4">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="D739" t="s">
+        <v>50</v>
+      </c>
+      <c r="F739">
+        <v>0</v>
+      </c>
+      <c r="I739" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C740" s="4">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="D740" t="s">
+        <v>28</v>
+      </c>
+      <c r="E740" t="s">
+        <v>182</v>
+      </c>
+      <c r="F740">
+        <v>89</v>
+      </c>
+      <c r="I740" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C741" s="4">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="D741" t="s">
+        <v>17</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="I741" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C742" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D742" t="s">
+        <v>132</v>
+      </c>
+      <c r="E742" t="s">
+        <v>133</v>
+      </c>
+      <c r="F742">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C743" s="4">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D743" t="s">
+        <v>50</v>
+      </c>
+      <c r="E743" t="s">
+        <v>12</v>
+      </c>
+      <c r="F743">
+        <v>8</v>
+      </c>
+      <c r="I743" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C744" s="4">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="D744" t="s">
+        <v>50</v>
+      </c>
+      <c r="E744" t="s">
+        <v>14</v>
+      </c>
+      <c r="F744">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C745" s="4">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="D745" t="s">
+        <v>171</v>
+      </c>
+      <c r="E745" t="s">
+        <v>172</v>
+      </c>
+      <c r="F745">
+        <v>49</v>
+      </c>
+      <c r="G745" t="s">
+        <v>26</v>
+      </c>
+      <c r="H745" t="s">
+        <v>152</v>
+      </c>
+      <c r="I745" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>745</v>
+      </c>
+      <c r="B746" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C746" s="4">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="D746" t="s">
+        <v>28</v>
+      </c>
+      <c r="F746">
+        <v>0</v>
+      </c>
+      <c r="I746" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>746</v>
+      </c>
+      <c r="B747" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C747" s="4">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="D747" t="s">
+        <v>50</v>
+      </c>
+      <c r="E747" t="s">
+        <v>21</v>
+      </c>
+      <c r="F747">
+        <v>21</v>
+      </c>
+      <c r="I747" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>747</v>
+      </c>
+      <c r="B748" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C748" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D748" t="s">
+        <v>50</v>
+      </c>
+      <c r="E748" t="s">
+        <v>13</v>
+      </c>
+      <c r="F748">
+        <v>36</v>
+      </c>
+      <c r="I748" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>748</v>
+      </c>
+      <c r="B749" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C749" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D749" t="s">
+        <v>17</v>
+      </c>
+      <c r="F749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>749</v>
+      </c>
+      <c r="B750" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C750" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D750" t="s">
+        <v>41</v>
+      </c>
+      <c r="E750" t="s">
+        <v>63</v>
+      </c>
+      <c r="F750">
+        <v>22</v>
+      </c>
+      <c r="I750" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>750</v>
+      </c>
+      <c r="B751" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C751" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="D751" t="s">
+        <v>28</v>
+      </c>
+      <c r="E751" t="s">
+        <v>182</v>
+      </c>
+      <c r="F751">
+        <v>34</v>
+      </c>
+      <c r="I751" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>751</v>
+      </c>
+      <c r="B752" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C752" s="4">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="D752" t="s">
+        <v>28</v>
+      </c>
+      <c r="F752">
+        <v>0</v>
+      </c>
+      <c r="I752" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>752</v>
+      </c>
+      <c r="B753" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C753" s="4">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D753" t="s">
+        <v>28</v>
+      </c>
+      <c r="E753" t="s">
+        <v>34</v>
+      </c>
+      <c r="F753">
+        <v>51</v>
+      </c>
+      <c r="I753" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>753</v>
+      </c>
+      <c r="B754" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C754" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="D754" t="s">
+        <v>50</v>
+      </c>
+      <c r="E754" t="s">
+        <v>11</v>
+      </c>
+      <c r="F754">
+        <v>6</v>
+      </c>
+      <c r="I754" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>754</v>
+      </c>
+      <c r="B755" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C755" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D755" t="s">
+        <v>50</v>
+      </c>
+      <c r="F755">
+        <v>0</v>
+      </c>
+      <c r="I755" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>755</v>
+      </c>
+      <c r="B756" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C756" s="4">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D756" t="s">
+        <v>50</v>
+      </c>
+      <c r="E756" t="s">
+        <v>7</v>
+      </c>
+      <c r="F756">
+        <v>29</v>
+      </c>
+      <c r="I756" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>756</v>
+      </c>
+      <c r="B757" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C757" s="4">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="D757" t="s">
+        <v>50</v>
+      </c>
+      <c r="F757">
+        <v>0</v>
+      </c>
+      <c r="I757" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>757</v>
+      </c>
+      <c r="B758" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C758" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="D758" t="s">
+        <v>50</v>
+      </c>
+      <c r="E758" t="s">
+        <v>11</v>
+      </c>
+      <c r="F758">
+        <v>26</v>
+      </c>
+      <c r="I758" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>758</v>
+      </c>
+      <c r="B759" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C759" s="4">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="D759" t="s">
+        <v>89</v>
+      </c>
+      <c r="E759" t="s">
+        <v>91</v>
+      </c>
+      <c r="F759">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>759</v>
+      </c>
+      <c r="B760" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C760" s="4">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="D760" t="s">
+        <v>28</v>
+      </c>
+      <c r="E760" t="s">
+        <v>34</v>
+      </c>
+      <c r="F760">
+        <v>55</v>
+      </c>
+      <c r="I760" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>760</v>
+      </c>
+      <c r="B761" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C761" s="4">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D761" t="s">
+        <v>28</v>
+      </c>
+      <c r="E761" t="s">
+        <v>43</v>
+      </c>
+      <c r="F761">
+        <v>22</v>
+      </c>
+      <c r="I761" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>761</v>
+      </c>
+      <c r="B762" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C762" s="4">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D762" t="s">
+        <v>41</v>
+      </c>
+      <c r="E762" t="s">
+        <v>63</v>
+      </c>
+      <c r="F762">
+        <v>17</v>
+      </c>
+      <c r="I762" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>762</v>
+      </c>
+      <c r="B763" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C763" s="4">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D763" t="s">
+        <v>140</v>
+      </c>
+      <c r="F763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>763</v>
+      </c>
+      <c r="B764" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C764" s="4">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="D764" t="s">
+        <v>28</v>
+      </c>
+      <c r="E764" t="s">
+        <v>33</v>
+      </c>
+      <c r="F764">
+        <v>8</v>
+      </c>
+      <c r="I764" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>764</v>
+      </c>
+      <c r="B765" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C765" s="4">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="D765" t="s">
+        <v>41</v>
+      </c>
+      <c r="E765" t="s">
+        <v>63</v>
+      </c>
+      <c r="F765">
+        <v>87</v>
+      </c>
+      <c r="I765" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>765</v>
+      </c>
+      <c r="B766" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C766" s="4">
+        <v>0.9604166666666667</v>
+      </c>
+      <c r="D766" t="s">
+        <v>50</v>
+      </c>
+      <c r="F766">
+        <v>0</v>
+      </c>
+      <c r="I766" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>766</v>
+      </c>
+      <c r="B767" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C767" s="4">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="D767" t="s">
+        <v>17</v>
+      </c>
+      <c r="F767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>767</v>
+      </c>
+      <c r="B768" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C768" s="4">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="D768" t="s">
+        <v>41</v>
+      </c>
+      <c r="E768" t="s">
+        <v>63</v>
+      </c>
+      <c r="F768">
+        <v>27</v>
+      </c>
+      <c r="I768" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>768</v>
+      </c>
+      <c r="B769" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C769" s="4">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="D769" t="s">
+        <v>28</v>
+      </c>
+      <c r="F769">
+        <v>0</v>
+      </c>
+      <c r="I769" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>769</v>
+      </c>
+      <c r="B770" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C770" s="4">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="D770" t="s">
+        <v>41</v>
+      </c>
+      <c r="E770" t="s">
+        <v>63</v>
+      </c>
+      <c r="F770">
+        <v>75</v>
+      </c>
+      <c r="I770" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>770</v>
+      </c>
+      <c r="B771" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C771" s="4">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D771" t="s">
+        <v>73</v>
+      </c>
+      <c r="E771" t="s">
+        <v>74</v>
+      </c>
+      <c r="F771">
+        <v>17</v>
+      </c>
+      <c r="I771" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>771</v>
+      </c>
+      <c r="B772" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C772" s="4">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="D772" t="s">
+        <v>50</v>
+      </c>
+      <c r="E772" t="s">
+        <v>7</v>
+      </c>
+      <c r="F772">
+        <v>17</v>
+      </c>
+      <c r="I772" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>772</v>
+      </c>
+      <c r="B773" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C773" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="D773" t="s">
+        <v>50</v>
+      </c>
+      <c r="E773" t="s">
+        <v>24</v>
+      </c>
+      <c r="F773">
+        <v>1</v>
+      </c>
+      <c r="I773" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>773</v>
+      </c>
+      <c r="B774" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C774" s="4">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="D774" t="s">
+        <v>41</v>
+      </c>
+      <c r="E774" t="s">
+        <v>63</v>
+      </c>
+      <c r="F774">
+        <v>47</v>
+      </c>
+      <c r="I774" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>774</v>
+      </c>
+      <c r="B775" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C775" s="4">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="D775" t="s">
+        <v>41</v>
+      </c>
+      <c r="E775" t="s">
+        <v>63</v>
+      </c>
+      <c r="F775">
+        <v>17</v>
+      </c>
+      <c r="I775" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>775</v>
+      </c>
+      <c r="B776" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C776" s="4">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="D776" t="s">
+        <v>28</v>
+      </c>
+      <c r="E776" t="s">
+        <v>43</v>
+      </c>
+      <c r="F776">
+        <v>39</v>
+      </c>
+      <c r="I776" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>776</v>
+      </c>
+      <c r="B777" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C777" s="4">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="D777" t="s">
+        <v>50</v>
+      </c>
+      <c r="E777" t="s">
+        <v>12</v>
+      </c>
+      <c r="F777">
+        <v>7</v>
+      </c>
+      <c r="I777" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="B778" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C778" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D778" t="s">
+        <v>50</v>
+      </c>
+      <c r="E778" t="s">
+        <v>12</v>
+      </c>
+      <c r="F778">
+        <v>39</v>
+      </c>
+      <c r="I778" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="B779" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C779" s="4">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="D779" t="s">
+        <v>50</v>
+      </c>
+      <c r="E779" t="s">
+        <v>12</v>
+      </c>
+      <c r="F779">
+        <v>48</v>
+      </c>
+      <c r="I779" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="B780" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C780" s="4">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="D780" t="s">
+        <v>28</v>
+      </c>
+      <c r="E780" t="s">
+        <v>35</v>
+      </c>
+      <c r="F780">
+        <v>120</v>
+      </c>
+      <c r="G780" t="s">
+        <v>26</v>
+      </c>
+      <c r="H780" t="s">
+        <v>152</v>
+      </c>
+      <c r="I780" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>780</v>
+      </c>
+      <c r="B781" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C781" s="4">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="D781" t="s">
+        <v>79</v>
+      </c>
+      <c r="E781" t="s">
+        <v>80</v>
+      </c>
+      <c r="F781">
+        <v>80</v>
+      </c>
+      <c r="G781" t="s">
+        <v>26</v>
+      </c>
+      <c r="H781" t="s">
+        <v>152</v>
+      </c>
+      <c r="I781" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>781</v>
+      </c>
+      <c r="B782" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C782" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="D782" t="s">
+        <v>50</v>
+      </c>
+      <c r="E782" t="s">
+        <v>12</v>
+      </c>
+      <c r="F782">
+        <v>31</v>
+      </c>
+      <c r="I782" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>782</v>
+      </c>
+      <c r="B783" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C783" s="4">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="D783" t="s">
+        <v>28</v>
+      </c>
+      <c r="E783" t="s">
+        <v>34</v>
+      </c>
+      <c r="F783">
+        <v>60</v>
+      </c>
+      <c r="I783" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>783</v>
+      </c>
+      <c r="B784" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C784" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D784" t="s">
+        <v>41</v>
+      </c>
+      <c r="E784" t="s">
+        <v>63</v>
+      </c>
+      <c r="F784">
+        <v>32</v>
+      </c>
+      <c r="I784" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="B785" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C785" s="4">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D785" t="s">
+        <v>31</v>
+      </c>
+      <c r="E785">
+        <v>6</v>
+      </c>
+      <c r="F785">
+        <v>180</v>
+      </c>
+      <c r="G785" t="s">
+        <v>26</v>
+      </c>
+      <c r="H785" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>785</v>
+      </c>
+      <c r="B786" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C786" s="4">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D786" t="s">
+        <v>50</v>
+      </c>
+      <c r="E786" t="s">
+        <v>11</v>
+      </c>
+      <c r="F786">
+        <v>20</v>
+      </c>
+      <c r="I786" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>786</v>
+      </c>
+      <c r="B787" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C787" s="4">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D787" t="s">
+        <v>28</v>
+      </c>
+      <c r="E787" t="s">
+        <v>35</v>
+      </c>
+      <c r="F787">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>787</v>
+      </c>
+      <c r="B788" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C788" s="4">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="D788" t="s">
+        <v>50</v>
+      </c>
+      <c r="E788" t="s">
+        <v>23</v>
+      </c>
+      <c r="F788">
+        <v>3</v>
+      </c>
+      <c r="I788" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>788</v>
+      </c>
+      <c r="B789" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C789" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D789" t="s">
+        <v>28</v>
+      </c>
+      <c r="E789" t="s">
+        <v>35</v>
+      </c>
+      <c r="F789">
+        <v>1</v>
+      </c>
+      <c r="I789" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>789</v>
+      </c>
+      <c r="B790" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C790" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D790" t="s">
+        <v>28</v>
+      </c>
+      <c r="E790" t="s">
+        <v>45</v>
+      </c>
+      <c r="F790">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>790</v>
+      </c>
+      <c r="B791" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C791" s="4">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="D791" t="s">
+        <v>28</v>
+      </c>
+      <c r="E791" t="s">
+        <v>35</v>
+      </c>
+      <c r="F791">
+        <v>88</v>
+      </c>
+      <c r="I791" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>791</v>
+      </c>
+      <c r="B792" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C792" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="D792" t="s">
+        <v>132</v>
+      </c>
+      <c r="E792" t="s">
+        <v>180</v>
+      </c>
+      <c r="F792">
+        <v>20</v>
+      </c>
+      <c r="I792" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>792</v>
+      </c>
+      <c r="B793" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C793" s="4">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="D793" t="s">
+        <v>28</v>
+      </c>
+      <c r="E793" t="s">
+        <v>35</v>
+      </c>
+      <c r="F793">
+        <v>10</v>
+      </c>
+      <c r="I793" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>793</v>
+      </c>
+      <c r="B794" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C794" s="4">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="D794" t="s">
+        <v>9</v>
+      </c>
+      <c r="E794" t="s">
+        <v>110</v>
+      </c>
+      <c r="F794">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>794</v>
+      </c>
+      <c r="B795" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C795" s="4">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D795" t="s">
+        <v>79</v>
+      </c>
+      <c r="E795" t="s">
+        <v>82</v>
+      </c>
+      <c r="F795">
+        <v>120</v>
+      </c>
+      <c r="I795" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>795</v>
+      </c>
+      <c r="B796" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C796" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="D796" t="s">
+        <v>50</v>
+      </c>
+      <c r="E796" t="s">
+        <v>13</v>
+      </c>
+      <c r="F796">
+        <v>17</v>
+      </c>
+      <c r="I796" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>796</v>
+      </c>
+      <c r="B797" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C797" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D797" t="s">
+        <v>47</v>
+      </c>
+      <c r="E797" t="s">
+        <v>5</v>
+      </c>
+      <c r="F797">
+        <v>21</v>
+      </c>
+      <c r="I797" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>797</v>
+      </c>
+      <c r="B798" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C798" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="D798" t="s">
+        <v>50</v>
+      </c>
+      <c r="E798" t="s">
+        <v>12</v>
+      </c>
+      <c r="F798">
+        <v>160</v>
+      </c>
+      <c r="G798" t="s">
+        <v>26</v>
+      </c>
+      <c r="H798" t="s">
+        <v>152</v>
+      </c>
+      <c r="I798" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>798</v>
+      </c>
+      <c r="B799" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C799" s="4">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="D799" t="s">
+        <v>28</v>
+      </c>
+      <c r="E799" t="s">
+        <v>35</v>
+      </c>
+      <c r="F799">
+        <v>50</v>
+      </c>
+      <c r="I799" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>799</v>
+      </c>
+      <c r="B800" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C800" s="4">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="D800" t="s">
+        <v>28</v>
+      </c>
+      <c r="E800" t="s">
+        <v>33</v>
+      </c>
+      <c r="F800">
+        <v>50</v>
+      </c>
+      <c r="I800" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>800</v>
+      </c>
+      <c r="B801" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C801" s="4">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="D801" t="s">
+        <v>50</v>
+      </c>
+      <c r="E801" t="s">
+        <v>11</v>
+      </c>
+      <c r="F801">
+        <v>5</v>
+      </c>
+      <c r="I801" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>801</v>
+      </c>
+      <c r="B802" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C802" s="4">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D802" t="s">
+        <v>132</v>
+      </c>
+      <c r="E802" t="s">
+        <v>180</v>
+      </c>
+      <c r="F802">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>802</v>
+      </c>
+      <c r="B803" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C803" s="4">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="D803" t="s">
+        <v>41</v>
+      </c>
+      <c r="E803" t="s">
+        <v>60</v>
+      </c>
+      <c r="F803">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>803</v>
+      </c>
+      <c r="B804" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C804" s="4">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D804" t="s">
+        <v>132</v>
+      </c>
+      <c r="E804" t="s">
+        <v>180</v>
+      </c>
+      <c r="F804">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>804</v>
+      </c>
+      <c r="B805" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C805" s="4">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D805" t="s">
+        <v>50</v>
+      </c>
+      <c r="E805" t="s">
+        <v>12</v>
+      </c>
+      <c r="F805">
+        <v>1</v>
+      </c>
+      <c r="I805" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>805</v>
+      </c>
+      <c r="B806" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C806" s="4">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="D806" t="s">
+        <v>132</v>
+      </c>
+      <c r="E806" t="s">
+        <v>180</v>
+      </c>
+      <c r="F806">
+        <v>17</v>
+      </c>
+      <c r="I806" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>806</v>
+      </c>
+      <c r="B807" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C807" s="4">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="D807" t="s">
+        <v>41</v>
+      </c>
+      <c r="E807" t="s">
+        <v>63</v>
+      </c>
+      <c r="F807">
+        <v>21</v>
+      </c>
+      <c r="I807" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>807</v>
+      </c>
+      <c r="B808" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C808" s="4">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="D808" t="s">
+        <v>50</v>
+      </c>
+      <c r="E808" t="s">
+        <v>13</v>
+      </c>
+      <c r="F808">
+        <v>180</v>
+      </c>
+      <c r="G808" t="s">
+        <v>26</v>
+      </c>
+      <c r="H808" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>808</v>
+      </c>
+      <c r="B809" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C809" s="4">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="D809" t="s">
+        <v>41</v>
+      </c>
+      <c r="E809" t="s">
+        <v>63</v>
+      </c>
+      <c r="F809">
+        <v>43</v>
+      </c>
+      <c r="I809" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>809</v>
+      </c>
+      <c r="B810" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C810" s="4">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="D810" t="s">
+        <v>41</v>
+      </c>
+      <c r="E810" t="s">
+        <v>63</v>
+      </c>
+      <c r="F810">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>810</v>
+      </c>
+      <c r="B811" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C811" s="4">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="D811" t="s">
+        <v>44</v>
+      </c>
+      <c r="E811" t="s">
+        <v>113</v>
+      </c>
+      <c r="F811">
+        <v>37</v>
+      </c>
+      <c r="I811" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>811</v>
+      </c>
+      <c r="B812" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C812" s="4">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="D812" t="s">
+        <v>15</v>
+      </c>
+      <c r="E812" t="s">
+        <v>173</v>
+      </c>
+      <c r="F812">
+        <v>21</v>
+      </c>
+      <c r="I812" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>812</v>
+      </c>
+      <c r="B813" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C813" s="4">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="D813" t="s">
+        <v>41</v>
+      </c>
+      <c r="E813" t="s">
+        <v>63</v>
+      </c>
+      <c r="F813">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>813</v>
+      </c>
+      <c r="B814" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C814" s="4">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="D814" t="s">
+        <v>41</v>
+      </c>
+      <c r="E814" t="s">
+        <v>63</v>
+      </c>
+      <c r="F814">
+        <v>67</v>
+      </c>
+      <c r="I814" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>814</v>
+      </c>
+      <c r="B815" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C815" s="4">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="D815" t="s">
+        <v>66</v>
+      </c>
+      <c r="E815" t="s">
+        <v>67</v>
+      </c>
+      <c r="F815">
+        <v>32</v>
+      </c>
+      <c r="I815" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>815</v>
+      </c>
+      <c r="B816" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C816" s="4">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="D816" t="s">
+        <v>28</v>
+      </c>
+      <c r="F816">
+        <v>0</v>
+      </c>
+      <c r="I816" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>816</v>
+      </c>
+      <c r="B817" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C817" s="4">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="D817" t="s">
+        <v>28</v>
+      </c>
+      <c r="E817" t="s">
+        <v>38</v>
+      </c>
+      <c r="F817">
+        <v>30</v>
+      </c>
+      <c r="I817" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>817</v>
+      </c>
+      <c r="B818" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C818" s="4">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="D818" t="s">
+        <v>41</v>
+      </c>
+      <c r="E818" t="s">
+        <v>63</v>
+      </c>
+      <c r="F818">
+        <v>11</v>
+      </c>
+      <c r="I818" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>818</v>
+      </c>
+      <c r="B819" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C819" s="4">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="D819" t="s">
+        <v>50</v>
+      </c>
+      <c r="E819" t="s">
+        <v>24</v>
+      </c>
+      <c r="F819">
+        <v>180</v>
+      </c>
+      <c r="I819" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>819</v>
+      </c>
+      <c r="B820" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C820" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D820" t="s">
+        <v>50</v>
+      </c>
+      <c r="E820" t="s">
+        <v>11</v>
+      </c>
+      <c r="F820">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>820</v>
+      </c>
+      <c r="B821" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C821" s="4">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="D821" t="s">
+        <v>132</v>
+      </c>
+      <c r="E821" t="s">
+        <v>180</v>
+      </c>
+      <c r="F821">
+        <v>16</v>
+      </c>
+      <c r="I821" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>821</v>
+      </c>
+      <c r="B822" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C822" s="4">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="D822" t="s">
+        <v>31</v>
+      </c>
+      <c r="E822">
+        <v>9</v>
+      </c>
+      <c r="F822">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>822</v>
+      </c>
+      <c r="B823" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C823" s="4">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D823" t="s">
+        <v>41</v>
+      </c>
+      <c r="E823" t="s">
+        <v>63</v>
+      </c>
+      <c r="F823">
+        <v>1</v>
+      </c>
+      <c r="I823" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>823</v>
+      </c>
+      <c r="B824" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C824" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="D824" t="s">
+        <v>50</v>
+      </c>
+      <c r="E824" t="s">
+        <v>29</v>
+      </c>
+      <c r="F824">
+        <v>47</v>
+      </c>
+      <c r="I824" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>824</v>
+      </c>
+      <c r="B825" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C825" s="4">
+        <v>0.88958333333333339</v>
+      </c>
+      <c r="D825" t="s">
+        <v>50</v>
+      </c>
+      <c r="E825" t="s">
+        <v>10</v>
+      </c>
+      <c r="F825">
+        <v>52</v>
+      </c>
+      <c r="I825" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>825</v>
+      </c>
+      <c r="B826" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C826" s="4">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D826" t="s">
+        <v>115</v>
+      </c>
+      <c r="E826" t="s">
+        <v>183</v>
+      </c>
+      <c r="F826">
+        <v>21</v>
+      </c>
+      <c r="I826" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>826</v>
+      </c>
+      <c r="B827" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C827" s="4">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="D827" t="s">
+        <v>132</v>
+      </c>
+      <c r="E827" t="s">
+        <v>180</v>
+      </c>
+      <c r="F827">
+        <v>32</v>
+      </c>
+      <c r="I827" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>827</v>
+      </c>
+      <c r="B828" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C828" s="4">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D828" t="s">
+        <v>9</v>
+      </c>
+      <c r="E828" t="s">
+        <v>108</v>
+      </c>
+      <c r="F828">
+        <v>120</v>
+      </c>
+      <c r="I828" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>828</v>
+      </c>
+      <c r="B829" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C829" s="4">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="D829" t="s">
+        <v>28</v>
+      </c>
+      <c r="E829" t="s">
+        <v>33</v>
+      </c>
+      <c r="F829">
+        <v>30</v>
+      </c>
+      <c r="I829" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>829</v>
+      </c>
+      <c r="B830" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C830" s="4">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="D830" t="s">
+        <v>50</v>
+      </c>
+      <c r="E830" t="s">
+        <v>13</v>
+      </c>
+      <c r="F830">
+        <v>28</v>
+      </c>
+      <c r="I830" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>830</v>
+      </c>
+      <c r="B831" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C831" s="4">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="D831" t="s">
+        <v>50</v>
+      </c>
+      <c r="E831" t="s">
+        <v>11</v>
+      </c>
+      <c r="F831">
+        <v>80</v>
+      </c>
+      <c r="I831" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>831</v>
+      </c>
+      <c r="B832" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C832" s="4">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="D832" t="s">
+        <v>50</v>
+      </c>
+      <c r="E832" t="s">
+        <v>10</v>
+      </c>
+      <c r="F832">
+        <v>60</v>
+      </c>
+      <c r="I832" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>832</v>
+      </c>
+      <c r="B833" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C833" s="4">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="D833" t="s">
+        <v>9</v>
+      </c>
+      <c r="E833" t="s">
+        <v>108</v>
+      </c>
+      <c r="F833">
+        <v>33</v>
+      </c>
+      <c r="I833" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>833</v>
+      </c>
+      <c r="B834" s="1">
+        <v>42688</v>
+      </c>
+      <c r="C834" s="4">
+        <v>0.97986111111111107</v>
+      </c>
+      <c r="D834" t="s">
+        <v>50</v>
+      </c>
+      <c r="E834" t="s">
+        <v>30</v>
+      </c>
+      <c r="F834">
+        <v>30</v>
+      </c>
+      <c r="I834" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>834</v>
+      </c>
+      <c r="B835" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C835" s="4">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="D835" t="s">
+        <v>28</v>
+      </c>
+      <c r="F835">
+        <v>0</v>
+      </c>
+      <c r="I835" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>835</v>
+      </c>
+      <c r="B836" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C836" s="4">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="D836" t="s">
+        <v>41</v>
+      </c>
+      <c r="E836" t="s">
+        <v>63</v>
+      </c>
+      <c r="F836">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>836</v>
+      </c>
+      <c r="B837" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C837" s="4">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="D837" t="s">
+        <v>50</v>
+      </c>
+      <c r="E837" t="s">
+        <v>21</v>
+      </c>
+      <c r="F837">
+        <v>1</v>
+      </c>
+      <c r="I837" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>837</v>
+      </c>
+      <c r="B838" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C838" s="4">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="D838" t="s">
+        <v>41</v>
+      </c>
+      <c r="E838" t="s">
+        <v>63</v>
+      </c>
+      <c r="F838">
+        <v>39</v>
+      </c>
+      <c r="I838" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>838</v>
+      </c>
+      <c r="B839" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C839" s="4">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="D839" t="s">
+        <v>132</v>
+      </c>
+      <c r="E839" t="s">
+        <v>180</v>
+      </c>
+      <c r="F839">
+        <v>30</v>
+      </c>
+      <c r="I839" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>839</v>
+      </c>
+      <c r="B840" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C840" s="4">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="D840" t="s">
+        <v>28</v>
+      </c>
+      <c r="E840" t="s">
+        <v>33</v>
+      </c>
+      <c r="F840">
+        <v>76</v>
+      </c>
+      <c r="G840" t="s">
+        <v>26</v>
+      </c>
+      <c r="H840" t="s">
+        <v>152</v>
+      </c>
+      <c r="I840" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>840</v>
+      </c>
+      <c r="B841" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C841" s="4">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D841" t="s">
+        <v>50</v>
+      </c>
+      <c r="E841" t="s">
+        <v>29</v>
+      </c>
+      <c r="F841">
+        <v>45</v>
+      </c>
+      <c r="I841" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>841</v>
+      </c>
+      <c r="B842" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C842" s="4">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="D842" t="s">
+        <v>41</v>
+      </c>
+      <c r="E842" t="s">
+        <v>63</v>
+      </c>
+      <c r="F842">
+        <v>300</v>
+      </c>
+      <c r="G842" t="s">
+        <v>26</v>
+      </c>
+      <c r="H842" t="s">
+        <v>152</v>
+      </c>
+      <c r="I842" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>842</v>
+      </c>
+      <c r="B843" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C843" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="D843" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F843">
+        <v>0</v>
+      </c>
+      <c r="I843" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>843</v>
+      </c>
+      <c r="B844" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C844" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="D844" t="s">
+        <v>50</v>
+      </c>
+      <c r="E844" t="s">
+        <v>7</v>
+      </c>
+      <c r="F844">
+        <v>8</v>
+      </c>
+      <c r="I844" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>844</v>
+      </c>
+      <c r="B845" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C845" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="D845" t="s">
+        <v>28</v>
+      </c>
+      <c r="E845" t="s">
+        <v>34</v>
+      </c>
+      <c r="F845">
+        <v>34</v>
+      </c>
+      <c r="I845" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>845</v>
+      </c>
+      <c r="B846" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C846" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D846" t="s">
+        <v>28</v>
+      </c>
+      <c r="E846" t="s">
+        <v>46</v>
+      </c>
+      <c r="F846">
+        <v>300</v>
+      </c>
+      <c r="G846" t="s">
+        <v>26</v>
+      </c>
+      <c r="H846" t="s">
+        <v>152</v>
+      </c>
+      <c r="I846" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>846</v>
+      </c>
+      <c r="B847" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C847" s="4">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="D847" t="s">
+        <v>140</v>
+      </c>
+      <c r="E847" t="s">
+        <v>143</v>
+      </c>
+      <c r="F847">
+        <v>1</v>
+      </c>
+      <c r="I847" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>847</v>
+      </c>
+      <c r="B848" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C848" s="4">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="D848" t="s">
+        <v>50</v>
+      </c>
+      <c r="E848" t="s">
+        <v>29</v>
+      </c>
+      <c r="F848">
+        <v>60</v>
+      </c>
+      <c r="I848" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>848</v>
+      </c>
+      <c r="B849" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C849" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D849" t="s">
+        <v>184</v>
+      </c>
+      <c r="E849" t="s">
+        <v>185</v>
+      </c>
+      <c r="F849">
+        <v>40</v>
+      </c>
+      <c r="I849" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>849</v>
+      </c>
+      <c r="B850" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C850" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D850" t="s">
+        <v>28</v>
+      </c>
+      <c r="E850" t="s">
+        <v>43</v>
+      </c>
+      <c r="F850">
+        <v>25</v>
+      </c>
+      <c r="I850" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>850</v>
+      </c>
+      <c r="B851" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C851" s="4">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="D851" t="s">
+        <v>73</v>
+      </c>
+      <c r="E851" t="s">
+        <v>75</v>
+      </c>
+      <c r="F851">
+        <v>78</v>
+      </c>
+      <c r="I851" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>851</v>
+      </c>
+      <c r="B852" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C852" s="4">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D852" t="s">
+        <v>28</v>
+      </c>
+      <c r="E852" t="s">
+        <v>33</v>
+      </c>
+      <c r="F852">
+        <v>120</v>
+      </c>
+      <c r="G852" t="s">
+        <v>26</v>
+      </c>
+      <c r="H852" t="s">
+        <v>152</v>
+      </c>
+      <c r="I852" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>852</v>
+      </c>
+      <c r="B853" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C853" s="4">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="D853" t="s">
+        <v>28</v>
+      </c>
+      <c r="E853" t="s">
+        <v>45</v>
+      </c>
+      <c r="F853">
+        <v>105</v>
+      </c>
+      <c r="G853" t="s">
+        <v>26</v>
+      </c>
+      <c r="H853" t="s">
+        <v>152</v>
+      </c>
+      <c r="I853" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>853</v>
+      </c>
+      <c r="B854" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C854" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D854" t="s">
+        <v>50</v>
+      </c>
+      <c r="E854" t="s">
+        <v>11</v>
+      </c>
+      <c r="F854">
+        <v>58</v>
+      </c>
+      <c r="I854" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>854</v>
+      </c>
+      <c r="B855" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C855" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D855" t="s">
+        <v>50</v>
+      </c>
+      <c r="E855" t="s">
+        <v>21</v>
+      </c>
+      <c r="F855">
+        <v>15</v>
+      </c>
+      <c r="I855" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>855</v>
+      </c>
+      <c r="B856" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C856" s="4">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="D856" t="s">
+        <v>28</v>
+      </c>
+      <c r="E856" t="s">
+        <v>33</v>
+      </c>
+      <c r="F856">
+        <v>4</v>
+      </c>
+      <c r="I856" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>856</v>
+      </c>
+      <c r="B857" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C857" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D857" t="s">
+        <v>50</v>
+      </c>
+      <c r="F857">
+        <v>0</v>
+      </c>
+      <c r="I857" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>857</v>
+      </c>
+      <c r="B858" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C858" s="4">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="D858" t="s">
+        <v>41</v>
+      </c>
+      <c r="E858" t="s">
+        <v>63</v>
+      </c>
+      <c r="F858">
+        <v>21</v>
+      </c>
+      <c r="I858" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>858</v>
+      </c>
+      <c r="B859" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C859" s="4">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="D859" t="s">
+        <v>50</v>
+      </c>
+      <c r="E859" t="s">
+        <v>21</v>
+      </c>
+      <c r="F859">
+        <v>20</v>
+      </c>
+      <c r="I859" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>859</v>
+      </c>
+      <c r="B860" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C860" s="4">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D860" t="s">
+        <v>41</v>
+      </c>
+      <c r="F860">
+        <v>0</v>
+      </c>
+      <c r="I860" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>860</v>
+      </c>
+      <c r="B861" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C861" s="4">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="D861" t="s">
+        <v>28</v>
+      </c>
+      <c r="E861" t="s">
+        <v>43</v>
+      </c>
+      <c r="F861">
+        <v>19</v>
+      </c>
+      <c r="I861" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>861</v>
+      </c>
+      <c r="B862" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C862" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D862" t="s">
+        <v>132</v>
+      </c>
+      <c r="E862" t="s">
+        <v>180</v>
+      </c>
+      <c r="F862">
+        <v>38</v>
+      </c>
+      <c r="I862" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>862</v>
+      </c>
+      <c r="B863" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C863" s="4">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="D863" t="s">
+        <v>50</v>
+      </c>
+      <c r="E863" t="s">
+        <v>23</v>
+      </c>
+      <c r="F863">
+        <v>29</v>
+      </c>
+      <c r="I863" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>863</v>
+      </c>
+      <c r="B864" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C864" s="4">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D864" t="s">
+        <v>9</v>
+      </c>
+      <c r="E864" t="s">
+        <v>108</v>
+      </c>
+      <c r="F864">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>864</v>
+      </c>
+      <c r="B865" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C865" s="4">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="D865" t="s">
+        <v>28</v>
+      </c>
+      <c r="F865">
+        <v>0</v>
+      </c>
+      <c r="I865" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>865</v>
+      </c>
+      <c r="B866" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C866" s="4">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="D866" t="s">
+        <v>47</v>
+      </c>
+      <c r="E866" t="s">
+        <v>3</v>
+      </c>
+      <c r="F866">
+        <v>60</v>
+      </c>
+      <c r="G866" t="s">
+        <v>26</v>
+      </c>
+      <c r="H866" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>866</v>
+      </c>
+      <c r="B867" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C867" s="4">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="D867" t="s">
+        <v>50</v>
+      </c>
+      <c r="E867" t="s">
+        <v>13</v>
+      </c>
+      <c r="F867">
+        <v>60</v>
+      </c>
+      <c r="I867" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>867</v>
+      </c>
+      <c r="B868" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C868" s="4">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="D868" t="s">
+        <v>50</v>
+      </c>
+      <c r="E868" t="s">
+        <v>21</v>
+      </c>
+      <c r="F868">
+        <v>1</v>
+      </c>
+      <c r="I868" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>868</v>
+      </c>
+      <c r="B869" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C869" s="4">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D869" t="s">
+        <v>28</v>
+      </c>
+      <c r="E869" t="s">
+        <v>43</v>
+      </c>
+      <c r="F869">
+        <v>60</v>
+      </c>
+      <c r="I869" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>869</v>
+      </c>
+      <c r="B870" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C870" s="4">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="D870" t="s">
+        <v>140</v>
+      </c>
+      <c r="E870" t="s">
+        <v>142</v>
+      </c>
+      <c r="F870">
+        <v>9</v>
+      </c>
+      <c r="I870" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>870</v>
+      </c>
+      <c r="B871" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C871" s="4">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D871" t="s">
+        <v>132</v>
+      </c>
+      <c r="E871" t="s">
+        <v>180</v>
+      </c>
+      <c r="F871">
+        <v>100</v>
+      </c>
+      <c r="I871" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>871</v>
+      </c>
+      <c r="B872" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C872" s="4">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D872" t="s">
+        <v>50</v>
+      </c>
+      <c r="E872" t="s">
+        <v>29</v>
+      </c>
+      <c r="F872">
+        <v>20</v>
+      </c>
+      <c r="I872" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>872</v>
+      </c>
+      <c r="B873" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C873" s="4">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D873" t="s">
+        <v>47</v>
+      </c>
+      <c r="E873" t="s">
+        <v>3</v>
+      </c>
+      <c r="F873">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>873</v>
+      </c>
+      <c r="B874" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C874" s="4">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D874" t="s">
+        <v>28</v>
+      </c>
+      <c r="E874" t="s">
+        <v>43</v>
+      </c>
+      <c r="F874">
+        <v>30</v>
+      </c>
+      <c r="I874" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>874</v>
+      </c>
+      <c r="B875" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C875" s="4">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="D875" t="s">
+        <v>132</v>
+      </c>
+      <c r="E875" t="s">
+        <v>180</v>
+      </c>
+      <c r="F875">
+        <v>40</v>
+      </c>
+      <c r="I875" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>875</v>
+      </c>
+      <c r="B876" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C876" s="4">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="D876" t="s">
+        <v>28</v>
+      </c>
+      <c r="E876" t="s">
+        <v>35</v>
+      </c>
+      <c r="F876">
+        <v>5</v>
+      </c>
+      <c r="I876" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>876</v>
+      </c>
+      <c r="B877" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C877" s="4">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="D877" t="s">
+        <v>50</v>
+      </c>
+      <c r="E877" t="s">
+        <v>7</v>
+      </c>
+      <c r="F877">
+        <v>45</v>
+      </c>
+      <c r="I877" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>877</v>
+      </c>
+      <c r="B878" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C878" s="4">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="D878" t="s">
+        <v>140</v>
+      </c>
+      <c r="E878" t="s">
+        <v>145</v>
+      </c>
+      <c r="F878">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>878</v>
+      </c>
+      <c r="B879" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C879" s="4">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D879" t="s">
+        <v>50</v>
+      </c>
+      <c r="E879" t="s">
+        <v>29</v>
+      </c>
+      <c r="F879">
+        <v>8</v>
+      </c>
+      <c r="I879" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>879</v>
+      </c>
+      <c r="B880" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C880" s="4">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="D880" t="s">
+        <v>41</v>
+      </c>
+      <c r="E880" t="s">
+        <v>60</v>
+      </c>
+      <c r="F880">
+        <v>420</v>
+      </c>
+      <c r="G880" t="s">
+        <v>26</v>
+      </c>
+      <c r="H880" t="s">
+        <v>152</v>
+      </c>
+      <c r="I880" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>880</v>
+      </c>
+      <c r="B881" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C881" s="4">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D881" t="s">
+        <v>28</v>
+      </c>
+      <c r="E881" t="s">
+        <v>35</v>
+      </c>
+      <c r="F881">
+        <v>120</v>
+      </c>
+      <c r="I881" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>881</v>
+      </c>
+      <c r="B882" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C882" s="4">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D882" t="s">
+        <v>115</v>
+      </c>
+      <c r="E882" t="s">
+        <v>163</v>
+      </c>
+      <c r="F882">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>882</v>
+      </c>
+      <c r="B883" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C883" s="4">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="D883" t="s">
+        <v>28</v>
+      </c>
+      <c r="E883" t="s">
+        <v>33</v>
+      </c>
+      <c r="F883">
+        <v>12</v>
+      </c>
+      <c r="I883" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>883</v>
+      </c>
+      <c r="B884" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C884" s="4">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="D884" t="s">
+        <v>50</v>
+      </c>
+      <c r="E884" t="s">
+        <v>11</v>
+      </c>
+      <c r="F884">
+        <v>240</v>
+      </c>
+      <c r="G884" t="s">
+        <v>26</v>
+      </c>
+      <c r="H884" t="s">
+        <v>152</v>
+      </c>
+      <c r="I884" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>884</v>
+      </c>
+      <c r="B885" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C885" s="4">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="D885" t="s">
+        <v>50</v>
+      </c>
+      <c r="E885" t="s">
+        <v>29</v>
+      </c>
+      <c r="F885">
+        <v>10</v>
+      </c>
+      <c r="I885" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>885</v>
+      </c>
+      <c r="B886" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C886" s="4">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="D886" t="s">
+        <v>66</v>
+      </c>
+      <c r="E886" t="s">
+        <v>67</v>
+      </c>
+      <c r="F886">
+        <v>1</v>
+      </c>
+      <c r="I886" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>886</v>
+      </c>
+      <c r="B887" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C887" s="4">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="D887" t="s">
+        <v>50</v>
+      </c>
+      <c r="E887" t="s">
+        <v>10</v>
+      </c>
+      <c r="F887">
+        <v>41</v>
+      </c>
+      <c r="I887" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>887</v>
+      </c>
+      <c r="B888" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C888" s="4">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="D888" t="s">
+        <v>41</v>
+      </c>
+      <c r="E888" t="s">
+        <v>63</v>
+      </c>
+      <c r="F888">
+        <v>11</v>
+      </c>
+      <c r="I888" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>888</v>
+      </c>
+      <c r="B889" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C889" s="4">
+        <v>0.98541666666666661</v>
+      </c>
+      <c r="D889" t="s">
+        <v>171</v>
+      </c>
+      <c r="E889" t="s">
+        <v>187</v>
+      </c>
+      <c r="F889">
+        <v>10</v>
+      </c>
+      <c r="I889" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>889</v>
+      </c>
+      <c r="B890" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C890" s="4">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="D890" t="s">
+        <v>171</v>
+      </c>
+      <c r="F890">
+        <v>0</v>
+      </c>
+      <c r="I890" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>890</v>
+      </c>
+      <c r="B891" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C891" s="4">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="D891" t="s">
+        <v>28</v>
+      </c>
+      <c r="E891" t="s">
+        <v>45</v>
+      </c>
+      <c r="F891">
+        <v>5</v>
+      </c>
+      <c r="I891" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>891</v>
+      </c>
+      <c r="B892" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C892" s="4">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="D892" t="s">
+        <v>28</v>
+      </c>
+      <c r="E892" t="s">
+        <v>34</v>
+      </c>
+      <c r="F892">
+        <v>12</v>
+      </c>
+      <c r="I892" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>892</v>
+      </c>
+      <c r="B893" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C893" s="4">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="D893" t="s">
+        <v>50</v>
+      </c>
+      <c r="E893" t="s">
+        <v>13</v>
+      </c>
+      <c r="F893">
+        <v>12</v>
+      </c>
+      <c r="I893" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>893</v>
+      </c>
+      <c r="B894" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C894" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D894" t="s">
+        <v>50</v>
+      </c>
+      <c r="E894" t="s">
+        <v>13</v>
+      </c>
+      <c r="F894">
+        <v>61</v>
+      </c>
+      <c r="I894" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>894</v>
+      </c>
+      <c r="B895" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C895" s="4">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="D895" t="s">
+        <v>17</v>
+      </c>
+      <c r="F895">
+        <v>0</v>
+      </c>
+      <c r="I895" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>895</v>
+      </c>
+      <c r="B896" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C896" s="4">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="D896" t="s">
+        <v>41</v>
+      </c>
+      <c r="E896" t="s">
+        <v>63</v>
+      </c>
+      <c r="F896">
+        <v>23</v>
+      </c>
+      <c r="I896" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>896</v>
+      </c>
+      <c r="B897" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C897" s="4">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D897" t="s">
+        <v>50</v>
+      </c>
+      <c r="E897" t="s">
+        <v>11</v>
+      </c>
+      <c r="F897">
+        <v>90</v>
+      </c>
+      <c r="I897" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>897</v>
+      </c>
+      <c r="B898" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C898" s="4">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D898" t="s">
+        <v>44</v>
+      </c>
+      <c r="E898" t="s">
+        <v>112</v>
+      </c>
+      <c r="F898">
+        <v>15</v>
+      </c>
+      <c r="I898" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>898</v>
+      </c>
+      <c r="B899" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C899" s="4">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="D899" t="s">
+        <v>28</v>
+      </c>
+      <c r="F899">
+        <v>0</v>
+      </c>
+      <c r="I899" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>899</v>
+      </c>
+      <c r="B900" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C900" s="4">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="D900" t="s">
+        <v>184</v>
+      </c>
+      <c r="E900" t="s">
+        <v>188</v>
+      </c>
+      <c r="F900">
+        <v>12</v>
+      </c>
+      <c r="I900" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>900</v>
+      </c>
+      <c r="B901" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C901" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D901" t="s">
+        <v>41</v>
+      </c>
+      <c r="E901" t="s">
+        <v>60</v>
+      </c>
+      <c r="F901">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>901</v>
+      </c>
+      <c r="B902" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C902" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D902" t="s">
+        <v>41</v>
+      </c>
+      <c r="E902" t="s">
+        <v>63</v>
+      </c>
+      <c r="F902">
+        <v>30</v>
+      </c>
+      <c r="I902" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>902</v>
+      </c>
+      <c r="B903" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C903" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="D903" t="s">
+        <v>97</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>903</v>
+      </c>
+      <c r="B904" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C904" s="4">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="D904" t="s">
+        <v>9</v>
+      </c>
+      <c r="E904" t="s">
+        <v>108</v>
+      </c>
+      <c r="F904">
+        <v>120</v>
+      </c>
+      <c r="I904" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>904</v>
+      </c>
+      <c r="B905" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C905" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D905" t="s">
+        <v>41</v>
+      </c>
+      <c r="E905" t="s">
+        <v>63</v>
+      </c>
+      <c r="F905">
+        <v>29</v>
+      </c>
+      <c r="I905" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>905</v>
+      </c>
+      <c r="B906" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C906" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D906" t="s">
+        <v>50</v>
+      </c>
+      <c r="E906" t="s">
+        <v>29</v>
+      </c>
+      <c r="F906">
+        <v>16</v>
+      </c>
+      <c r="I906" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>906</v>
+      </c>
+      <c r="B907" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C907" s="4">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="D907" t="s">
+        <v>28</v>
+      </c>
+      <c r="E907" t="s">
+        <v>33</v>
+      </c>
+      <c r="F907">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>907</v>
+      </c>
+      <c r="B908" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C908" s="4">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="D908" t="s">
+        <v>28</v>
+      </c>
+      <c r="E908" t="s">
+        <v>182</v>
+      </c>
+      <c r="F908">
+        <v>80</v>
+      </c>
+      <c r="I908" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>908</v>
+      </c>
+      <c r="B909" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C909" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="D909" t="s">
+        <v>73</v>
+      </c>
+      <c r="E909" t="s">
+        <v>74</v>
+      </c>
+      <c r="F909">
+        <v>60</v>
+      </c>
+      <c r="I909" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>909</v>
+      </c>
+      <c r="B910" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C910" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D910" t="s">
+        <v>41</v>
+      </c>
+      <c r="E910" t="s">
+        <v>63</v>
+      </c>
+      <c r="F910">
+        <v>90</v>
+      </c>
+      <c r="I910" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>910</v>
+      </c>
+      <c r="B911" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C911" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D911" t="s">
+        <v>28</v>
+      </c>
+      <c r="E911" t="s">
+        <v>182</v>
+      </c>
+      <c r="F911">
+        <v>120</v>
+      </c>
+      <c r="G911" t="s">
+        <v>26</v>
+      </c>
+      <c r="H911" t="s">
+        <v>152</v>
+      </c>
+      <c r="I911" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>911</v>
+      </c>
+      <c r="B912" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C912" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D912" t="s">
+        <v>50</v>
+      </c>
+      <c r="E912" t="s">
+        <v>7</v>
+      </c>
+      <c r="F912">
+        <v>57</v>
+      </c>
+      <c r="G912" t="s">
+        <v>26</v>
+      </c>
+      <c r="H912" t="s">
+        <v>152</v>
+      </c>
+      <c r="I912" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>912</v>
+      </c>
+      <c r="B913" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C913" s="4">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="D913" t="s">
+        <v>28</v>
+      </c>
+      <c r="E913" t="s">
+        <v>182</v>
+      </c>
+      <c r="F913">
+        <v>50</v>
+      </c>
+      <c r="I913" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>913</v>
+      </c>
+      <c r="B914" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C914" s="4">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="D914" t="s">
+        <v>50</v>
+      </c>
+      <c r="E914" t="s">
+        <v>30</v>
+      </c>
+      <c r="F914">
+        <v>1</v>
+      </c>
+      <c r="I914" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>914</v>
+      </c>
+      <c r="B915" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C915" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D915" t="s">
+        <v>50</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+      <c r="I915" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>915</v>
+      </c>
+      <c r="B916" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C916" s="4">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="D916" t="s">
+        <v>28</v>
+      </c>
+      <c r="E916" t="s">
+        <v>35</v>
+      </c>
+      <c r="F916">
+        <v>15</v>
+      </c>
+      <c r="I916" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>916</v>
+      </c>
+      <c r="B917" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C917" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="D917" t="s">
+        <v>28</v>
+      </c>
+      <c r="E917" t="s">
+        <v>36</v>
+      </c>
+      <c r="F917">
+        <v>43</v>
+      </c>
+      <c r="I917" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>917</v>
+      </c>
+      <c r="B918" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C918" s="4">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D918" t="s">
+        <v>50</v>
+      </c>
+      <c r="E918" t="s">
+        <v>11</v>
+      </c>
+      <c r="F918">
+        <v>12</v>
+      </c>
+      <c r="I918" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>918</v>
+      </c>
+      <c r="B919" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C919" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D919" t="s">
+        <v>50</v>
+      </c>
+      <c r="F919">
+        <v>0</v>
+      </c>
+      <c r="I919" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>919</v>
+      </c>
+      <c r="B920" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C920" s="4">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="D920" t="s">
+        <v>132</v>
+      </c>
+      <c r="E920" t="s">
+        <v>180</v>
+      </c>
+      <c r="F920">
+        <v>80</v>
+      </c>
+      <c r="I920" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>920</v>
+      </c>
+      <c r="B921" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C921" s="4">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="D921" t="s">
+        <v>41</v>
+      </c>
+      <c r="E921" t="s">
+        <v>63</v>
+      </c>
+      <c r="F921">
+        <v>250</v>
+      </c>
+      <c r="G921" t="s">
+        <v>26</v>
+      </c>
+      <c r="H921" t="s">
+        <v>152</v>
+      </c>
+      <c r="I921" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>921</v>
+      </c>
+      <c r="B922" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C922" s="4">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D922" t="s">
+        <v>132</v>
+      </c>
+      <c r="E922" t="s">
+        <v>180</v>
+      </c>
+      <c r="F922">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>922</v>
+      </c>
+      <c r="B923" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C923" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D923" t="s">
+        <v>41</v>
+      </c>
+      <c r="E923" t="s">
+        <v>63</v>
+      </c>
+      <c r="F923">
+        <v>60</v>
+      </c>
+      <c r="I923" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>923</v>
+      </c>
+      <c r="B924" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C924" s="4">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="D924" t="s">
+        <v>28</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="I924" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>924</v>
+      </c>
+      <c r="B925" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C925" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D925" t="s">
+        <v>50</v>
+      </c>
+      <c r="E925" t="s">
+        <v>7</v>
+      </c>
+      <c r="F925">
+        <v>74</v>
+      </c>
+      <c r="I925" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>925</v>
+      </c>
+      <c r="B926" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C926" s="4">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="D926" t="s">
+        <v>50</v>
+      </c>
+      <c r="E926" t="s">
+        <v>7</v>
+      </c>
+      <c r="F926">
+        <v>12</v>
+      </c>
+      <c r="I926" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>926</v>
+      </c>
+      <c r="B927" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C927" s="4">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="D927" t="s">
+        <v>132</v>
+      </c>
+      <c r="E927" t="s">
+        <v>134</v>
+      </c>
+      <c r="F927">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>927</v>
+      </c>
+      <c r="B928" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C928" s="4">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="D928" t="s">
+        <v>184</v>
+      </c>
+      <c r="E928" t="s">
+        <v>185</v>
+      </c>
+      <c r="F928">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>928</v>
+      </c>
+      <c r="B929" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C929" s="4">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="D929" t="s">
+        <v>73</v>
+      </c>
+      <c r="E929" t="s">
+        <v>74</v>
+      </c>
+      <c r="F929">
+        <v>19</v>
+      </c>
+      <c r="I929" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>929</v>
+      </c>
+      <c r="B930" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C930" s="4">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="D930" t="s">
+        <v>50</v>
+      </c>
+      <c r="E930" t="s">
+        <v>12</v>
+      </c>
+      <c r="F930">
+        <v>22</v>
+      </c>
+      <c r="I930" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>930</v>
+      </c>
+      <c r="B931" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C931" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D931" t="s">
+        <v>28</v>
+      </c>
+      <c r="E931" t="s">
+        <v>167</v>
+      </c>
+      <c r="F931">
+        <v>25</v>
+      </c>
+      <c r="I931" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>931</v>
+      </c>
+      <c r="B932" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C932" s="4">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="D932" t="s">
+        <v>41</v>
+      </c>
+      <c r="E932" t="s">
+        <v>63</v>
+      </c>
+      <c r="F932">
+        <v>30</v>
+      </c>
+      <c r="I932" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>932</v>
+      </c>
+      <c r="B933" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C933" s="4">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="D933" t="s">
+        <v>47</v>
+      </c>
+      <c r="E933" t="s">
+        <v>4</v>
+      </c>
+      <c r="F933">
+        <v>72</v>
+      </c>
+      <c r="I933" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>933</v>
+      </c>
+      <c r="B934" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C934" s="4">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="D934" t="s">
+        <v>50</v>
+      </c>
+      <c r="F934">
+        <v>0</v>
+      </c>
+      <c r="I934" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>934</v>
+      </c>
+      <c r="B935" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C935" s="4">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="D935" t="s">
+        <v>28</v>
+      </c>
+      <c r="E935" t="s">
+        <v>34</v>
+      </c>
+      <c r="F935">
+        <v>14</v>
+      </c>
+      <c r="I935" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>935</v>
+      </c>
+      <c r="B936" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C936" s="4">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="D936" t="s">
+        <v>73</v>
+      </c>
+      <c r="E936" t="s">
+        <v>74</v>
+      </c>
+      <c r="F936">
+        <v>41</v>
+      </c>
+      <c r="I936" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>936</v>
+      </c>
+      <c r="B937" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C937" s="4">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="D937" t="s">
+        <v>138</v>
+      </c>
+      <c r="E937" t="s">
+        <v>189</v>
+      </c>
+      <c r="F937">
+        <v>120</v>
+      </c>
+      <c r="G937" t="s">
+        <v>26</v>
+      </c>
+      <c r="H937" t="s">
+        <v>152</v>
+      </c>
+      <c r="I937" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>937</v>
+      </c>
+      <c r="B938" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C938" s="4">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="D938" t="s">
+        <v>50</v>
+      </c>
+      <c r="E938" t="s">
+        <v>23</v>
+      </c>
+      <c r="F938">
+        <v>13</v>
+      </c>
+      <c r="I938" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>938</v>
+      </c>
+      <c r="B939" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C939" s="4">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="D939" t="s">
+        <v>54</v>
+      </c>
+      <c r="E939" t="s">
+        <v>190</v>
+      </c>
+      <c r="F939">
+        <v>12</v>
+      </c>
+      <c r="I939" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>939</v>
+      </c>
+      <c r="B940" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C940" s="4">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="D940" t="s">
+        <v>132</v>
+      </c>
+      <c r="E940" t="s">
+        <v>180</v>
+      </c>
+      <c r="F940">
+        <v>8</v>
+      </c>
+      <c r="I940" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>940</v>
+      </c>
+      <c r="B941" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C941" s="4">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D941" t="s">
+        <v>50</v>
+      </c>
+      <c r="E941" t="s">
+        <v>11</v>
+      </c>
+      <c r="F941">
+        <v>20</v>
+      </c>
+      <c r="I941" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>941</v>
+      </c>
+      <c r="B942" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C942" s="4">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="D942" t="s">
+        <v>50</v>
+      </c>
+      <c r="E942" t="s">
+        <v>10</v>
+      </c>
+      <c r="F942">
+        <v>54</v>
+      </c>
+      <c r="I942" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>942</v>
+      </c>
+      <c r="B943" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C943" s="4">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="D943" t="s">
+        <v>28</v>
+      </c>
+      <c r="E943" t="s">
+        <v>34</v>
+      </c>
+      <c r="F943">
+        <v>40</v>
+      </c>
+      <c r="I943" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>943</v>
+      </c>
+      <c r="B944" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C944" s="4">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="D944" t="s">
+        <v>41</v>
+      </c>
+      <c r="E944" t="s">
+        <v>60</v>
+      </c>
+      <c r="F944">
+        <v>120</v>
+      </c>
+      <c r="I944" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>944</v>
+      </c>
+      <c r="B945" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C945" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D945" t="s">
+        <v>140</v>
+      </c>
+      <c r="E945" t="s">
+        <v>143</v>
+      </c>
+      <c r="F945">
+        <v>40</v>
+      </c>
+      <c r="I945" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>945</v>
+      </c>
+      <c r="B946" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C946" s="4">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="D946" t="s">
+        <v>66</v>
+      </c>
+      <c r="E946" t="s">
+        <v>191</v>
+      </c>
+      <c r="F946">
+        <v>30</v>
+      </c>
+      <c r="I946" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>946</v>
+      </c>
+      <c r="B947" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C947" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D947" t="s">
+        <v>15</v>
+      </c>
+      <c r="E947" t="s">
+        <v>173</v>
+      </c>
+      <c r="F947">
+        <v>42</v>
+      </c>
+      <c r="I947" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>947</v>
+      </c>
+      <c r="B948" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C948" s="4">
+        <v>0.96736111111111101</v>
+      </c>
+      <c r="D948" t="s">
+        <v>50</v>
+      </c>
+      <c r="E948" t="s">
+        <v>7</v>
+      </c>
+      <c r="F948">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>948</v>
+      </c>
+      <c r="B949" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C949" s="4">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="D949" t="s">
+        <v>140</v>
+      </c>
+      <c r="E949" t="s">
+        <v>192</v>
+      </c>
+      <c r="F949">
+        <v>120</v>
+      </c>
+      <c r="I949" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>949</v>
+      </c>
+      <c r="B950" s="1">
+        <v>42690</v>
+      </c>
+      <c r="C950" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D950" t="s">
+        <v>50</v>
+      </c>
+      <c r="E950" t="s">
+        <v>24</v>
+      </c>
+      <c r="F950">
+        <v>57</v>
+      </c>
+      <c r="I950" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>950</v>
+      </c>
+      <c r="B951" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C951" s="4">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="D951" t="s">
+        <v>50</v>
+      </c>
+      <c r="E951" t="s">
+        <v>13</v>
+      </c>
+      <c r="F951">
+        <v>15</v>
+      </c>
+      <c r="I951" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>951</v>
+      </c>
+      <c r="B952" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C952" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D952" t="s">
+        <v>50</v>
+      </c>
+      <c r="E952" t="s">
+        <v>13</v>
+      </c>
+      <c r="F952">
+        <v>15</v>
+      </c>
+      <c r="I952" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>952</v>
+      </c>
+      <c r="B953" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C953" s="4">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="D953" t="s">
+        <v>42</v>
+      </c>
+      <c r="E953" t="s">
+        <v>193</v>
+      </c>
+      <c r="F953">
+        <v>17</v>
+      </c>
+      <c r="I953" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>953</v>
+      </c>
+      <c r="B954" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C954" s="4">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="D954" t="s">
+        <v>28</v>
+      </c>
+      <c r="E954" t="s">
+        <v>35</v>
+      </c>
+      <c r="F954">
+        <v>37</v>
+      </c>
+      <c r="I954" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>954</v>
+      </c>
+      <c r="B955" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C955" s="4">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="D955" t="s">
+        <v>28</v>
+      </c>
+      <c r="E955" t="s">
+        <v>33</v>
+      </c>
+      <c r="F955">
+        <v>39</v>
+      </c>
+      <c r="I955" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>955</v>
+      </c>
+      <c r="B956" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C956" s="4">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D956" t="s">
+        <v>115</v>
+      </c>
+      <c r="E956" t="s">
+        <v>183</v>
+      </c>
+      <c r="F956">
+        <v>3</v>
+      </c>
+      <c r="I956" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>956</v>
+      </c>
+      <c r="B957" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C957" s="4">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="D957" t="s">
+        <v>73</v>
+      </c>
+      <c r="E957" t="s">
+        <v>74</v>
+      </c>
+      <c r="F957">
+        <v>55</v>
+      </c>
+      <c r="I957" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>957</v>
+      </c>
+      <c r="B958" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C958" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D958" t="s">
+        <v>50</v>
+      </c>
+      <c r="E958" t="s">
+        <v>13</v>
+      </c>
+      <c r="F958">
+        <v>45</v>
+      </c>
+      <c r="I958" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>958</v>
+      </c>
+      <c r="B959" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C959" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D959" t="s">
+        <v>140</v>
+      </c>
+      <c r="E959" t="s">
+        <v>179</v>
+      </c>
+      <c r="F959">
+        <v>120</v>
+      </c>
+      <c r="G959" t="s">
+        <v>26</v>
+      </c>
+      <c r="H959" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>959</v>
+      </c>
+      <c r="B960" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C960" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="D960" t="s">
+        <v>50</v>
+      </c>
+      <c r="E960" t="s">
+        <v>10</v>
+      </c>
+      <c r="F960">
+        <v>1</v>
+      </c>
+      <c r="I960" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>960</v>
+      </c>
+      <c r="B961" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C961" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="D961" t="s">
+        <v>41</v>
+      </c>
+      <c r="E961" t="s">
+        <v>63</v>
+      </c>
+      <c r="F961">
+        <v>35</v>
+      </c>
+      <c r="I961" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>961</v>
+      </c>
+      <c r="B962" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C962" s="4">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D962" t="s">
+        <v>31</v>
+      </c>
+      <c r="F962">
+        <v>0</v>
+      </c>
+      <c r="I962" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>962</v>
+      </c>
+      <c r="B963" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C963" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="D963" t="s">
+        <v>28</v>
+      </c>
+      <c r="E963" t="s">
+        <v>34</v>
+      </c>
+      <c r="F963">
+        <v>35</v>
+      </c>
+      <c r="I963" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>963</v>
+      </c>
+      <c r="B964" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C964" s="4">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="D964" t="s">
+        <v>41</v>
+      </c>
+      <c r="E964" t="s">
+        <v>63</v>
+      </c>
+      <c r="F964">
+        <v>50</v>
+      </c>
+      <c r="I964" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>964</v>
+      </c>
+      <c r="B965" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C965" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="D965" t="s">
+        <v>41</v>
+      </c>
+      <c r="E965" t="s">
+        <v>63</v>
+      </c>
+      <c r="F965">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>965</v>
+      </c>
+      <c r="B966" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C966" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D966" t="s">
+        <v>28</v>
+      </c>
+      <c r="E966" t="s">
+        <v>33</v>
+      </c>
+      <c r="F966">
+        <v>25</v>
+      </c>
+      <c r="I966" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>966</v>
+      </c>
+      <c r="B967" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C967" s="4">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="D967" t="s">
+        <v>28</v>
+      </c>
+      <c r="E967" t="s">
+        <v>167</v>
+      </c>
+      <c r="F967">
+        <v>52</v>
+      </c>
+      <c r="I967" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>967</v>
+      </c>
+      <c r="B968" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C968" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D968" t="s">
+        <v>18</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>968</v>
+      </c>
+      <c r="B969" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C969" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D969" t="s">
+        <v>9</v>
+      </c>
+      <c r="E969" t="s">
+        <v>194</v>
+      </c>
+      <c r="F969">
+        <v>4</v>
+      </c>
+      <c r="I969" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>969</v>
+      </c>
+      <c r="B970" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C970" s="4">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="D970" t="s">
+        <v>73</v>
+      </c>
+      <c r="E970" t="s">
+        <v>74</v>
+      </c>
+      <c r="F970">
+        <v>72</v>
+      </c>
+      <c r="I970" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>970</v>
+      </c>
+      <c r="B971" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C971" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D971" t="s">
+        <v>50</v>
+      </c>
+      <c r="E971" t="s">
+        <v>29</v>
+      </c>
+      <c r="F971">
+        <v>13</v>
+      </c>
+      <c r="I971" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>971</v>
+      </c>
+      <c r="B972" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C972" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D972" t="s">
+        <v>28</v>
+      </c>
+      <c r="E972" t="s">
+        <v>38</v>
+      </c>
+      <c r="F972">
+        <v>20</v>
+      </c>
+      <c r="I972" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>972</v>
+      </c>
+      <c r="B973" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C973" s="4">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D973" t="s">
+        <v>44</v>
+      </c>
+      <c r="E973" t="s">
+        <v>111</v>
+      </c>
+      <c r="F973">
+        <v>12</v>
+      </c>
+      <c r="I973" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>973</v>
+      </c>
+      <c r="B974" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C974" s="4">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="D974" t="s">
+        <v>50</v>
+      </c>
+      <c r="E974" t="s">
+        <v>23</v>
+      </c>
+      <c r="F974">
+        <v>11</v>
+      </c>
+      <c r="I974" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>974</v>
+      </c>
+      <c r="B975" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C975" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="D975" t="s">
+        <v>9</v>
+      </c>
+      <c r="F975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>975</v>
+      </c>
+      <c r="B976" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C976" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="D976" t="s">
+        <v>50</v>
+      </c>
+      <c r="E976" t="s">
+        <v>13</v>
+      </c>
+      <c r="F976">
+        <v>60</v>
+      </c>
+      <c r="I976" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>976</v>
+      </c>
+      <c r="B977" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C977" s="4">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="D977" t="s">
+        <v>138</v>
+      </c>
+      <c r="E977" t="s">
+        <v>139</v>
+      </c>
+      <c r="F977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>977</v>
+      </c>
+      <c r="B978" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C978" s="4">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="D978" t="s">
+        <v>73</v>
+      </c>
+      <c r="E978" t="s">
+        <v>74</v>
+      </c>
+      <c r="F978">
+        <v>20</v>
+      </c>
+      <c r="G978" t="s">
+        <v>26</v>
+      </c>
+      <c r="H978" t="s">
+        <v>149</v>
+      </c>
+      <c r="I978" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>978</v>
+      </c>
+      <c r="B979" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C979" s="4">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="D979" t="s">
+        <v>17</v>
+      </c>
+      <c r="F979">
+        <v>0</v>
+      </c>
+      <c r="I979" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>979</v>
+      </c>
+      <c r="B980" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C980" s="4">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="D980" t="s">
+        <v>50</v>
+      </c>
+      <c r="E980" t="s">
+        <v>13</v>
+      </c>
+      <c r="F980">
+        <v>14</v>
+      </c>
+      <c r="I980" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>980</v>
+      </c>
+      <c r="B981" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C981" s="4">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="D981" t="s">
+        <v>28</v>
+      </c>
+      <c r="E981" t="s">
+        <v>46</v>
+      </c>
+      <c r="F981">
+        <v>29</v>
+      </c>
+      <c r="I981" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>981</v>
+      </c>
+      <c r="B982" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C982" s="4">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="D982" t="s">
+        <v>41</v>
+      </c>
+      <c r="E982" t="s">
+        <v>63</v>
+      </c>
+      <c r="F982">
+        <v>14</v>
+      </c>
+      <c r="I982" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>982</v>
+      </c>
+      <c r="B983" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C983" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D983" t="s">
+        <v>41</v>
+      </c>
+      <c r="E983" t="s">
+        <v>63</v>
+      </c>
+      <c r="F983">
+        <v>26</v>
+      </c>
+      <c r="I983" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>983</v>
+      </c>
+      <c r="B984" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C984" s="4">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="D984" t="s">
+        <v>28</v>
+      </c>
+      <c r="E984" t="s">
+        <v>167</v>
+      </c>
+      <c r="F984">
+        <v>180</v>
+      </c>
+      <c r="G984" t="s">
+        <v>26</v>
+      </c>
+      <c r="H984" t="s">
+        <v>149</v>
+      </c>
+      <c r="I984" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>984</v>
+      </c>
+      <c r="B985" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C985" s="4">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D985" t="s">
+        <v>41</v>
+      </c>
+      <c r="E985" t="s">
+        <v>63</v>
+      </c>
+      <c r="F985">
+        <v>28</v>
+      </c>
+      <c r="I985" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>985</v>
+      </c>
+      <c r="B986" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C986" s="4">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D986" t="s">
+        <v>50</v>
+      </c>
+      <c r="E986" t="s">
+        <v>7</v>
+      </c>
+      <c r="F986">
+        <v>120</v>
+      </c>
+      <c r="I986" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>986</v>
+      </c>
+      <c r="B987" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C987" s="4">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D987" t="s">
+        <v>28</v>
+      </c>
+      <c r="E987" t="s">
+        <v>38</v>
+      </c>
+      <c r="F987">
+        <v>1</v>
+      </c>
+      <c r="I987" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>987</v>
+      </c>
+      <c r="B988" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C988" s="4">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="D988" t="s">
+        <v>41</v>
+      </c>
+      <c r="E988" t="s">
+        <v>63</v>
+      </c>
+      <c r="F988">
+        <v>3</v>
+      </c>
+      <c r="I988" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>988</v>
+      </c>
+      <c r="B989" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C989" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D989" t="s">
+        <v>132</v>
+      </c>
+      <c r="E989" t="s">
+        <v>180</v>
+      </c>
+      <c r="F989">
+        <v>104</v>
+      </c>
+      <c r="I989" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>989</v>
+      </c>
+      <c r="B990" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C990" s="4">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D990" t="s">
+        <v>50</v>
+      </c>
+      <c r="E990" t="s">
+        <v>30</v>
+      </c>
+      <c r="F990">
+        <v>31</v>
+      </c>
+      <c r="I990" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>990</v>
+      </c>
+      <c r="B991" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C991" s="4">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D991" t="s">
+        <v>41</v>
+      </c>
+      <c r="E991" t="s">
+        <v>63</v>
+      </c>
+      <c r="F991">
+        <v>12</v>
+      </c>
+      <c r="I991" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>991</v>
+      </c>
+      <c r="B992" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C992" s="4">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="D992" t="s">
+        <v>37</v>
+      </c>
+      <c r="E992" t="s">
+        <v>195</v>
+      </c>
+      <c r="F992">
+        <v>27</v>
+      </c>
+      <c r="I992" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>992</v>
+      </c>
+      <c r="B993" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C993" s="4">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D993" t="s">
+        <v>50</v>
+      </c>
+      <c r="E993" t="s">
+        <v>7</v>
+      </c>
+      <c r="F993">
+        <v>180</v>
+      </c>
+      <c r="I993" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>993</v>
+      </c>
+      <c r="B994" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C994" s="4">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="D994" t="s">
+        <v>50</v>
+      </c>
+      <c r="E994" t="s">
+        <v>13</v>
+      </c>
+      <c r="F994">
+        <v>1</v>
+      </c>
+      <c r="I994" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>994</v>
+      </c>
+      <c r="B995" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C995" s="4">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D995" t="s">
+        <v>140</v>
+      </c>
+      <c r="E995" t="s">
+        <v>142</v>
+      </c>
+      <c r="F995">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>995</v>
+      </c>
+      <c r="B996" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C996" s="4">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="D996" t="s">
+        <v>89</v>
+      </c>
+      <c r="E996" t="s">
+        <v>91</v>
+      </c>
+      <c r="F996">
+        <v>200</v>
+      </c>
+      <c r="G996" t="s">
+        <v>26</v>
+      </c>
+      <c r="H996" t="s">
+        <v>152</v>
+      </c>
+      <c r="I996" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>996</v>
+      </c>
+      <c r="B997" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C997" s="4">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="D997" t="s">
+        <v>28</v>
+      </c>
+      <c r="E997" t="s">
+        <v>35</v>
+      </c>
+      <c r="F997">
+        <v>20</v>
+      </c>
+      <c r="I997" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>997</v>
+      </c>
+      <c r="B998" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C998" s="4">
+        <v>0.9472222222222223</v>
+      </c>
+      <c r="D998" t="s">
+        <v>89</v>
+      </c>
+      <c r="E998" t="s">
+        <v>90</v>
+      </c>
+      <c r="F998">
+        <v>150</v>
+      </c>
+      <c r="G998" t="s">
+        <v>26</v>
+      </c>
+      <c r="H998" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>998</v>
+      </c>
+      <c r="B999" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C999" s="4">
+        <v>0.95208333333333339</v>
+      </c>
+      <c r="D999" t="s">
+        <v>50</v>
+      </c>
+      <c r="E999" t="s">
+        <v>29</v>
+      </c>
+      <c r="F999">
+        <v>18</v>
+      </c>
+      <c r="I999" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C1000" s="4">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1000">
+        <v>1</v>
+      </c>
+      <c r="I1000" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>42691</v>
+      </c>
+      <c r="C1001" s="4">
+        <v>0.99861111111111101</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1001">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1002" s="4">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1002">
+        <v>30</v>
+      </c>
+      <c r="I1002" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1003" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1003">
+        <v>8</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1004" s="4">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1004">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1005" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1005">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1006" s="4">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1006">
+        <v>60</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1007" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1007">
+        <v>30</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1008" s="4">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1008">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1009" s="4">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1009">
+        <v>15</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1010" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1010">
+        <v>23</v>
+      </c>
+      <c r="I1010" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1011" s="4">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1011">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1012" s="4">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1012">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1013" s="4">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1013">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1014" s="4">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1015" s="4">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1015">
+        <v>2</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1016" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1016">
+        <v>12</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1017" s="4">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1017">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1018" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1018">
+        <v>31</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1019" s="4">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1019">
+        <v>30</v>
+      </c>
+      <c r="I1019" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1020" s="4">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1020">
+        <v>150</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1021" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1021">
+        <v>87</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1022" s="4">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1022">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1023" s="4">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1023">
+        <v>30</v>
+      </c>
+      <c r="I1023" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1024" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1024">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1025" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1025">
+        <v>30</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1026" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1026">
+        <v>49</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1027" s="4">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1027">
+        <v>8</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1028" s="4">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1028">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1029" s="4">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1029">
+        <v>25</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1030" s="4">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1030">
+        <v>31</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1031" s="4">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1031">
+        <v>200</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1032" s="4">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1032">
+        <v>20</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1033" s="4">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1033">
+        <v>12</v>
+      </c>
+      <c r="I1033" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1034" s="4">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1034">
+        <v>30</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1035" s="4">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1035">
+        <v>30</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1036" s="4">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1036">
+        <v>70</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1037" s="4">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1037">
+        <v>81</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1038" s="4">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1038">
+        <v>30</v>
+      </c>
+      <c r="I1038" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1039" s="4">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1039">
+        <v>52</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1040" s="4">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1040">
+        <v>4</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1041" s="4">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1041">
+        <v>20</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1042" s="4">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1043" s="4">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1043">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1044" s="4">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1044">
+        <v>34</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1045" s="4">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1045">
+        <v>41</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1046" s="4">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1046">
+        <v>0</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1047" s="4">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1047">
+        <v>21</v>
+      </c>
+      <c r="I1047" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1048" s="4">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1048">
+        <v>31</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1049" s="4">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1049">
+        <v>46</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1050" s="4">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1050">
+        <v>9</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1051" s="4">
+        <v>0.88611111111111107</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1051">
+        <v>41</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1052" s="4">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1052">
+        <v>41</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1053" s="4">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1053">
+        <v>15</v>
+      </c>
+      <c r="I1053" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1054" s="4">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1054">
+        <v>3</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1055" s="4">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1055">
+        <v>6</v>
+      </c>
+      <c r="F1055">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1056" s="4">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1056">
+        <v>0</v>
+      </c>
+      <c r="I1056" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1057" s="4">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1057">
+        <v>33</v>
+      </c>
+      <c r="I1057" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>42692</v>
+      </c>
+      <c r="C1058" s="4">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1058">
+        <v>61</v>
+      </c>
+      <c r="I1058" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1059" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1059">
+        <v>19</v>
+      </c>
+      <c r="I1059" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1060" s="4">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1060">
+        <v>21</v>
+      </c>
+      <c r="I1060" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1061" s="4">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1061">
+        <v>31</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1062" s="4">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1062">
+        <v>38</v>
+      </c>
+      <c r="I1062" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1063" s="4">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1063">
+        <v>31</v>
+      </c>
+      <c r="I1063" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1064" s="4">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1064">
+        <v>10</v>
+      </c>
+      <c r="I1064" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1065" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1065">
+        <v>104</v>
+      </c>
+      <c r="I1065" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1066" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1066">
+        <v>0</v>
+      </c>
+      <c r="I1066" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1067" s="4">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1068" s="4">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1068">
+        <v>0</v>
+      </c>
+      <c r="I1068" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1069" s="4">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1069">
+        <v>0</v>
+      </c>
+      <c r="I1069" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1070" s="4">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1070">
+        <v>0</v>
+      </c>
+      <c r="I1070" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1071" s="4">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1071">
+        <v>0</v>
+      </c>
+      <c r="I1071" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1072" s="4">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1072">
+        <v>120</v>
+      </c>
+      <c r="I1072" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1073" s="4">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1073">
+        <v>46</v>
+      </c>
+      <c r="I1073" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1074" s="4">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1074">
+        <v>180</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1075" s="4">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1075">
+        <v>21</v>
+      </c>
+      <c r="I1075" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1076" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1076">
+        <v>120</v>
+      </c>
+      <c r="I1076" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1077" s="4">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1077">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1078" s="4">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1078">
+        <v>12</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1079" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1079">
+        <v>92</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1080" s="4">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1080">
+        <v>1</v>
+      </c>
+      <c r="I1080" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1081" s="4">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1081">
+        <v>25</v>
+      </c>
+      <c r="I1081" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1082" s="4">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1082">
+        <v>30</v>
+      </c>
+      <c r="I1082" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1083" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1083">
+        <v>35</v>
+      </c>
+      <c r="I1083" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1084" s="4">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1084">
+        <v>36</v>
+      </c>
+      <c r="I1084" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1085" s="4">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1085">
+        <v>15</v>
+      </c>
+      <c r="I1085" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1086" s="4">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1086">
+        <v>13</v>
+      </c>
+      <c r="I1086" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1087" s="4">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1087">
+        <v>240</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1087" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1088" s="4">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1088">
+        <v>1</v>
+      </c>
+      <c r="I1088" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1089" s="4">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1089">
+        <v>17</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1090" s="4">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1090">
+        <v>60</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1091" s="4">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1091">
+        <v>240</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1092" s="4">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1092">
+        <v>0</v>
+      </c>
+      <c r="I1092" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1093" s="4">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1093">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1094" s="4">
+        <v>0.89513888888888893</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1094">
+        <v>1</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>1094</v>
+      </c>
+      <c r="B1095" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1095" s="4">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1095">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>1095</v>
+      </c>
+      <c r="B1096" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1096" s="4">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1096">
+        <v>0</v>
+      </c>
+      <c r="I1096" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>1096</v>
+      </c>
+      <c r="B1097" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1097" s="4">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1097">
+        <v>1</v>
+      </c>
+      <c r="I1097" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1098" s="4">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1098">
+        <v>100</v>
+      </c>
+      <c r="I1098" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1099" s="4">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1099">
+        <v>0</v>
+      </c>
+      <c r="I1099" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C1100" s="4">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1101" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G611">
+  <autoFilter ref="A1:G965">
     <sortState ref="A2:G611">
       <sortCondition ref="A1"/>
     </sortState>
